--- a/figure_generation/data/summary_nic.xlsx
+++ b/figure_generation/data/summary_nic.xlsx
@@ -1,40 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lily/Lily/Academic/AW_Lab/code/nsp_code_manuscript/figure_generation/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2690DB25-5B1C-324B-AD66-47A306F5CD39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="21240" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$300</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="11">
   <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>time_id</t>
+  </si>
+  <si>
+    <t>sample_no</t>
+  </si>
+  <si>
     <t>bundle_no</t>
+  </si>
+  <si>
+    <t>type_bundle</t>
   </si>
   <si>
     <t>type_Rcell</t>
   </si>
   <si>
-    <t>type_bundle</t>
+    <t>angle</t>
   </si>
   <si>
-    <t>sample_no</t>
+    <t>length</t>
   </si>
   <si>
     <t>Nic</t>
@@ -45,24 +48,12 @@
   <si>
     <t>R3R4</t>
   </si>
-  <si>
-    <t>category_id</t>
-  </si>
-  <si>
-    <t>time_id</t>
-  </si>
-  <si>
-    <t>angle</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,14 +116,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -179,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,27 +194,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,24 +228,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,47 +403,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>24</v>
@@ -507,11 +449,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
       </c>
       <c r="G2">
         <v>0.6</v>
@@ -520,9 +462,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -533,11 +475,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
       </c>
       <c r="G3">
         <v>-0.75</v>
@@ -546,9 +488,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>24</v>
@@ -559,11 +501,11 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -572,9 +514,9 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -585,11 +527,11 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
       </c>
       <c r="G5">
         <v>-0.625</v>
@@ -598,9 +540,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -611,11 +553,11 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
       </c>
       <c r="G6">
         <v>0.7</v>
@@ -624,9 +566,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -637,11 +579,11 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
       </c>
       <c r="G7">
         <v>-0.85</v>
@@ -650,9 +592,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>24</v>
@@ -663,22 +605,22 @@
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
       </c>
       <c r="G8">
         <v>0.8</v>
       </c>
       <c r="H8">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>24</v>
@@ -689,11 +631,11 @@
       <c r="D9">
         <v>4</v>
       </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -702,9 +644,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>24</v>
@@ -715,11 +657,11 @@
       <c r="D10">
         <v>5</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
       </c>
       <c r="G10">
         <v>0.95</v>
@@ -728,9 +670,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -741,11 +683,11 @@
       <c r="D11">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>6</v>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
       </c>
       <c r="G11">
         <v>-0.625</v>
@@ -754,9 +696,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>24</v>
@@ -767,11 +709,11 @@
       <c r="D12">
         <v>6</v>
       </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
       </c>
       <c r="G12">
         <v>0.85</v>
@@ -780,9 +722,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>24</v>
@@ -793,11 +735,11 @@
       <c r="D13">
         <v>6</v>
       </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
       </c>
       <c r="G13">
         <v>-0.625</v>
@@ -806,9 +748,9 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>24</v>
@@ -819,22 +761,22 @@
       <c r="D14">
         <v>7</v>
       </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>6</v>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>-0.67500000000000004</v>
+        <v>-0.675</v>
       </c>
       <c r="H14">
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>24</v>
@@ -845,11 +787,11 @@
       <c r="D15">
         <v>8</v>
       </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
       </c>
       <c r="G15">
         <v>-0.9</v>
@@ -858,9 +800,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>24</v>
@@ -871,22 +813,22 @@
       <c r="D16">
         <v>9</v>
       </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>6</v>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>-0.67500000000000004</v>
+        <v>-0.675</v>
       </c>
       <c r="H16">
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>24</v>
@@ -897,11 +839,11 @@
       <c r="D17">
         <v>10</v>
       </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>6</v>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
       </c>
       <c r="G17">
         <v>-1</v>
@@ -910,9 +852,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>24</v>
@@ -923,11 +865,11 @@
       <c r="D18">
         <v>11</v>
       </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>6</v>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
       </c>
       <c r="G18">
         <v>-0.7</v>
@@ -936,9 +878,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>24</v>
@@ -949,22 +891,22 @@
       <c r="D19">
         <v>12</v>
       </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>6</v>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>-0.67500000000000004</v>
+        <v>-0.675</v>
       </c>
       <c r="H19">
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>24</v>
@@ -975,11 +917,11 @@
       <c r="D20">
         <v>13</v>
       </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>6</v>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
       </c>
       <c r="G20">
         <v>-0.85</v>
@@ -988,9 +930,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>24</v>
@@ -1001,11 +943,11 @@
       <c r="D21">
         <v>14</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21" t="s">
-        <v>6</v>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
       </c>
       <c r="G21">
         <v>0.8</v>
@@ -1014,9 +956,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <v>24</v>
@@ -1027,11 +969,11 @@
       <c r="D22">
         <v>14</v>
       </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>6</v>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
       </c>
       <c r="G22">
         <v>-0.7</v>
@@ -1040,9 +982,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>24</v>
@@ -1053,11 +995,11 @@
       <c r="D23">
         <v>15</v>
       </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s">
-        <v>6</v>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
       </c>
       <c r="G23">
         <v>-0.65</v>
@@ -1066,9 +1008,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -1079,22 +1021,22 @@
       <c r="D24">
         <v>16</v>
       </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24" t="s">
-        <v>6</v>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>-0.48333333299999998</v>
+        <v>-0.483333333</v>
       </c>
       <c r="H24">
         <v>0.75</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -1105,22 +1047,22 @@
       <c r="D25">
         <v>17</v>
       </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>6</v>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
       </c>
       <c r="G25">
         <v>-0.85</v>
       </c>
       <c r="H25">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -1131,11 +1073,11 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s">
-        <v>5</v>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
       </c>
       <c r="G26">
         <v>0.9</v>
@@ -1144,9 +1086,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>24</v>
@@ -1157,11 +1099,11 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s">
-        <v>5</v>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
       </c>
       <c r="G27">
         <v>-0.65</v>
@@ -1170,9 +1112,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>24</v>
@@ -1183,11 +1125,11 @@
       <c r="D28">
         <v>2</v>
       </c>
-      <c r="E28">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
       </c>
       <c r="G28">
         <v>0.9</v>
@@ -1196,9 +1138,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B29">
         <v>24</v>
@@ -1209,11 +1151,11 @@
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-      <c r="F29" t="s">
-        <v>5</v>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
       </c>
       <c r="G29">
         <v>-0.9</v>
@@ -1222,9 +1164,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B30">
         <v>24</v>
@@ -1235,11 +1177,11 @@
       <c r="D30">
         <v>3</v>
       </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30" t="s">
-        <v>6</v>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
       </c>
       <c r="G30">
         <v>0.95</v>
@@ -1248,9 +1190,9 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B31">
         <v>24</v>
@@ -1261,11 +1203,11 @@
       <c r="D31">
         <v>3</v>
       </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31" t="s">
-        <v>6</v>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
       </c>
       <c r="G31">
         <v>-0.85</v>
@@ -1274,9 +1216,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B32">
         <v>24</v>
@@ -1287,11 +1229,11 @@
       <c r="D32">
         <v>4</v>
       </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32" t="s">
-        <v>5</v>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
       </c>
       <c r="G32">
         <v>0.7</v>
@@ -1300,9 +1242,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>24</v>
@@ -1313,11 +1255,11 @@
       <c r="D33">
         <v>4</v>
       </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
-        <v>5</v>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
       </c>
       <c r="G33">
         <v>-0.9</v>
@@ -1326,9 +1268,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B34">
         <v>24</v>
@@ -1339,11 +1281,11 @@
       <c r="D34">
         <v>5</v>
       </c>
-      <c r="E34">
-        <v>4</v>
-      </c>
-      <c r="F34" t="s">
-        <v>5</v>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
       </c>
       <c r="G34">
         <v>0.6</v>
@@ -1352,9 +1294,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>24</v>
@@ -1365,11 +1307,11 @@
       <c r="D35">
         <v>5</v>
       </c>
-      <c r="E35">
-        <v>4</v>
-      </c>
-      <c r="F35" t="s">
-        <v>5</v>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
       </c>
       <c r="G35">
         <v>-0.6</v>
@@ -1378,9 +1320,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <v>24</v>
@@ -1391,22 +1333,22 @@
       <c r="D36">
         <v>6</v>
       </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-      <c r="F36" t="s">
-        <v>6</v>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>-0.2</v>
+        <v>-0.45</v>
       </c>
       <c r="H36">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>24</v>
@@ -1417,22 +1359,22 @@
       <c r="D37">
         <v>7</v>
       </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37" t="s">
-        <v>6</v>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
       </c>
       <c r="G37">
         <v>0.8</v>
       </c>
       <c r="H37">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B38">
         <v>24</v>
@@ -1443,11 +1385,11 @@
       <c r="D38">
         <v>7</v>
       </c>
-      <c r="E38">
-        <v>4</v>
-      </c>
-      <c r="F38" t="s">
-        <v>6</v>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
       </c>
       <c r="G38">
         <v>-0.95</v>
@@ -1456,9 +1398,9 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B39">
         <v>24</v>
@@ -1469,11 +1411,11 @@
       <c r="D39">
         <v>8</v>
       </c>
-      <c r="E39">
-        <v>4</v>
-      </c>
-      <c r="F39" t="s">
-        <v>5</v>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
       </c>
       <c r="G39">
         <v>0.6</v>
@@ -1482,9 +1424,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B40">
         <v>24</v>
@@ -1495,11 +1437,11 @@
       <c r="D40">
         <v>8</v>
       </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-      <c r="F40" t="s">
-        <v>5</v>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
       </c>
       <c r="G40">
         <v>-0.6</v>
@@ -1508,9 +1450,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B41">
         <v>24</v>
@@ -1521,11 +1463,11 @@
       <c r="D41">
         <v>9</v>
       </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-      <c r="F41" t="s">
-        <v>6</v>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
       </c>
       <c r="G41">
         <v>0.75</v>
@@ -1534,9 +1476,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B42">
         <v>24</v>
@@ -1547,11 +1489,11 @@
       <c r="D42">
         <v>9</v>
       </c>
-      <c r="E42">
-        <v>4</v>
-      </c>
-      <c r="F42" t="s">
-        <v>6</v>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
       </c>
       <c r="G42">
         <v>-1.625</v>
@@ -1560,9 +1502,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B43">
         <v>24</v>
@@ -1573,22 +1515,22 @@
       <c r="D43">
         <v>11</v>
       </c>
-      <c r="E43">
-        <v>4</v>
-      </c>
-      <c r="F43" t="s">
-        <v>6</v>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>-0.45</v>
+        <v>0.675</v>
       </c>
       <c r="H43">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B44">
         <v>24</v>
@@ -1599,22 +1541,22 @@
       <c r="D44">
         <v>11</v>
       </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-      <c r="F44" t="s">
-        <v>6</v>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
       </c>
       <c r="G44">
-        <v>0.67500000000000004</v>
+        <v>-0.45</v>
       </c>
       <c r="H44">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B45">
         <v>24</v>
@@ -1625,22 +1567,22 @@
       <c r="D45">
         <v>12</v>
       </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-      <c r="F45" t="s">
-        <v>6</v>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>1.0249999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="H45">
         <v>1.25</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B46">
         <v>24</v>
@@ -1651,11 +1593,11 @@
       <c r="D46">
         <v>12</v>
       </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
-      <c r="F46" t="s">
-        <v>6</v>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
       </c>
       <c r="G46">
         <v>-0.85</v>
@@ -1664,9 +1606,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B47">
         <v>24</v>
@@ -1677,22 +1619,22 @@
       <c r="D47">
         <v>13</v>
       </c>
-      <c r="E47">
-        <v>4</v>
-      </c>
-      <c r="F47" t="s">
-        <v>6</v>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
       </c>
       <c r="G47">
-        <v>-0.52500000000000002</v>
+        <v>-0.525</v>
       </c>
       <c r="H47">
         <v>0.95</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B48">
         <v>24</v>
@@ -1703,22 +1645,22 @@
       <c r="D48">
         <v>14</v>
       </c>
-      <c r="E48">
-        <v>4</v>
-      </c>
-      <c r="F48" t="s">
-        <v>6</v>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
       </c>
       <c r="G48">
-        <v>-0.2</v>
+        <v>0.95</v>
       </c>
       <c r="H48">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B49">
         <v>24</v>
@@ -1729,22 +1671,22 @@
       <c r="D49">
         <v>14</v>
       </c>
-      <c r="E49">
-        <v>3</v>
-      </c>
-      <c r="F49" t="s">
-        <v>6</v>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
       </c>
       <c r="G49">
-        <v>0.95</v>
+        <v>-0.2</v>
       </c>
       <c r="H49">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B50">
         <v>24</v>
@@ -1755,22 +1697,22 @@
       <c r="D50">
         <v>15</v>
       </c>
-      <c r="E50">
-        <v>4</v>
-      </c>
-      <c r="F50" t="s">
-        <v>6</v>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
       </c>
       <c r="G50">
-        <v>-0.55000000000000004</v>
+        <v>0.7625</v>
       </c>
       <c r="H50">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B51">
         <v>24</v>
@@ -1781,22 +1723,22 @@
       <c r="D51">
         <v>15</v>
       </c>
-      <c r="E51">
-        <v>3</v>
-      </c>
-      <c r="F51" t="s">
-        <v>6</v>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
       </c>
       <c r="G51">
-        <v>0.76249999999999996</v>
+        <v>-0.55</v>
       </c>
       <c r="H51">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B52">
         <v>24</v>
@@ -1807,22 +1749,22 @@
       <c r="D52">
         <v>16</v>
       </c>
-      <c r="E52">
-        <v>4</v>
-      </c>
-      <c r="F52" t="s">
-        <v>6</v>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
       </c>
       <c r="G52">
-        <v>-0.52500000000000002</v>
+        <v>-0.525</v>
       </c>
       <c r="H52">
         <v>0.9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B53">
         <v>24</v>
@@ -1833,11 +1775,11 @@
       <c r="D53">
         <v>17</v>
       </c>
-      <c r="E53">
-        <v>4</v>
-      </c>
-      <c r="F53" t="s">
-        <v>6</v>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
       </c>
       <c r="G53">
         <v>-0.5</v>
@@ -1846,9 +1788,9 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B54">
         <v>24</v>
@@ -1859,22 +1801,22 @@
       <c r="D54">
         <v>18</v>
       </c>
-      <c r="E54">
-        <v>3</v>
-      </c>
-      <c r="F54" t="s">
-        <v>6</v>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
       </c>
       <c r="G54">
         <v>0.8</v>
       </c>
       <c r="H54">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B55">
         <v>24</v>
@@ -1885,22 +1827,22 @@
       <c r="D55">
         <v>18</v>
       </c>
-      <c r="E55">
-        <v>4</v>
-      </c>
-      <c r="F55" t="s">
-        <v>6</v>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
       </c>
       <c r="G55">
-        <v>-0.73750000000000004</v>
+        <v>-0.7375</v>
       </c>
       <c r="H55">
         <v>0.8</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B56">
         <v>24</v>
@@ -1911,22 +1853,22 @@
       <c r="D56">
         <v>37</v>
       </c>
-      <c r="E56">
-        <v>4</v>
-      </c>
-      <c r="F56" t="s">
-        <v>6</v>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
       </c>
       <c r="G56">
-        <v>-1.1000000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="H56">
         <v>0.85</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B57">
         <v>24</v>
@@ -1937,11 +1879,11 @@
       <c r="D57">
         <v>39</v>
       </c>
-      <c r="E57">
-        <v>4</v>
-      </c>
-      <c r="F57" t="s">
-        <v>6</v>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
       </c>
       <c r="G57">
         <v>-1.25</v>
@@ -1950,9 +1892,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B58">
         <v>24</v>
@@ -1963,11 +1905,11 @@
       <c r="D58">
         <v>41</v>
       </c>
-      <c r="E58">
-        <v>4</v>
-      </c>
-      <c r="F58" t="s">
-        <v>6</v>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
       </c>
       <c r="G58">
         <v>-1.075</v>
@@ -1976,9 +1918,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B59">
         <v>24</v>
@@ -1989,11 +1931,11 @@
       <c r="D59">
         <v>43</v>
       </c>
-      <c r="E59">
-        <v>4</v>
-      </c>
-      <c r="F59" t="s">
-        <v>6</v>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
       </c>
       <c r="G59">
         <v>-0.65</v>
@@ -2002,9 +1944,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B60">
         <v>24</v>
@@ -2015,22 +1957,22 @@
       <c r="D60">
         <v>45</v>
       </c>
-      <c r="E60">
-        <v>4</v>
-      </c>
-      <c r="F60" t="s">
-        <v>6</v>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
       </c>
       <c r="G60">
-        <v>-0.7</v>
+        <v>0.85</v>
       </c>
       <c r="H60">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B61">
         <v>24</v>
@@ -2041,22 +1983,22 @@
       <c r="D61">
         <v>45</v>
       </c>
-      <c r="E61">
-        <v>3</v>
-      </c>
-      <c r="F61" t="s">
-        <v>6</v>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
       </c>
       <c r="G61">
-        <v>0.85</v>
+        <v>-0.7</v>
       </c>
       <c r="H61">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B62">
         <v>24</v>
@@ -2067,22 +2009,22 @@
       <c r="D62">
         <v>47</v>
       </c>
-      <c r="E62">
-        <v>4</v>
-      </c>
-      <c r="F62" t="s">
-        <v>6</v>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
       </c>
       <c r="G62">
-        <v>-1.1000000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B63">
         <v>24</v>
@@ -2093,11 +2035,11 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63">
-        <v>4</v>
-      </c>
-      <c r="F63" t="s">
-        <v>5</v>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
       </c>
       <c r="G63">
         <v>1.25</v>
@@ -2106,9 +2048,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B64">
         <v>24</v>
@@ -2119,22 +2061,22 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64">
-        <v>4</v>
-      </c>
-      <c r="F64" t="s">
-        <v>5</v>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
       </c>
       <c r="G64">
-        <v>-0.82499999999999996</v>
+        <v>-0.825</v>
       </c>
       <c r="H64">
         <v>0.75</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B65">
         <v>24</v>
@@ -2145,48 +2087,48 @@
       <c r="D65">
         <v>2</v>
       </c>
-      <c r="E65">
-        <v>4</v>
-      </c>
-      <c r="F65" t="s">
-        <v>6</v>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
       </c>
       <c r="G65">
+        <v>0.9</v>
+      </c>
+      <c r="H65">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>24</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66">
         <v>-0.65</v>
       </c>
-      <c r="H65">
+      <c r="H66">
         <v>0.75</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66">
-        <v>24</v>
-      </c>
-      <c r="C66">
-        <v>3</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66">
-        <v>3</v>
-      </c>
-      <c r="F66" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66">
-        <v>0.9</v>
-      </c>
-      <c r="H66">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B67">
         <v>24</v>
@@ -2197,11 +2139,11 @@
       <c r="D67">
         <v>3</v>
       </c>
-      <c r="E67">
-        <v>4</v>
-      </c>
-      <c r="F67" t="s">
-        <v>5</v>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
       </c>
       <c r="G67">
         <v>1.05</v>
@@ -2210,9 +2152,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B68">
         <v>24</v>
@@ -2223,11 +2165,11 @@
       <c r="D68">
         <v>3</v>
       </c>
-      <c r="E68">
-        <v>4</v>
-      </c>
-      <c r="F68" t="s">
-        <v>5</v>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
       </c>
       <c r="G68">
         <v>-0.75</v>
@@ -2236,9 +2178,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B69">
         <v>24</v>
@@ -2249,11 +2191,11 @@
       <c r="D69">
         <v>4</v>
       </c>
-      <c r="E69">
-        <v>4</v>
-      </c>
-      <c r="F69" t="s">
-        <v>5</v>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
       </c>
       <c r="G69">
         <v>0.9</v>
@@ -2262,9 +2204,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B70">
         <v>24</v>
@@ -2275,11 +2217,11 @@
       <c r="D70">
         <v>4</v>
       </c>
-      <c r="E70">
-        <v>4</v>
-      </c>
-      <c r="F70" t="s">
-        <v>5</v>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
       </c>
       <c r="G70">
         <v>-0.9</v>
@@ -2288,9 +2230,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B71">
         <v>24</v>
@@ -2301,22 +2243,22 @@
       <c r="D71">
         <v>5</v>
       </c>
-      <c r="E71">
-        <v>4</v>
-      </c>
-      <c r="F71" t="s">
-        <v>6</v>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
       </c>
       <c r="G71">
-        <v>-0.23749999999999999</v>
+        <v>1.175</v>
       </c>
       <c r="H71">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B72">
         <v>24</v>
@@ -2327,22 +2269,22 @@
       <c r="D72">
         <v>5</v>
       </c>
-      <c r="E72">
-        <v>3</v>
-      </c>
-      <c r="F72" t="s">
-        <v>6</v>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
       </c>
       <c r="G72">
-        <v>1.175</v>
+        <v>-0.35</v>
       </c>
       <c r="H72">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B73">
         <v>24</v>
@@ -2353,22 +2295,22 @@
       <c r="D73">
         <v>6</v>
       </c>
-      <c r="E73">
-        <v>4</v>
-      </c>
-      <c r="F73" t="s">
-        <v>6</v>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
       </c>
       <c r="G73">
-        <v>-0.65</v>
+        <v>0.925</v>
       </c>
       <c r="H73">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B74">
         <v>24</v>
@@ -2379,22 +2321,22 @@
       <c r="D74">
         <v>6</v>
       </c>
-      <c r="E74">
-        <v>3</v>
-      </c>
-      <c r="F74" t="s">
-        <v>6</v>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
       </c>
       <c r="G74">
-        <v>0.92500000000000004</v>
+        <v>-0.65</v>
       </c>
       <c r="H74">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B75">
         <v>24</v>
@@ -2405,22 +2347,22 @@
       <c r="D75">
         <v>7</v>
       </c>
-      <c r="E75">
-        <v>4</v>
-      </c>
-      <c r="F75" t="s">
-        <v>6</v>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
       </c>
       <c r="G75">
-        <v>-0.875</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B76">
         <v>24</v>
@@ -2431,22 +2373,22 @@
       <c r="D76">
         <v>7</v>
       </c>
-      <c r="E76">
-        <v>3</v>
-      </c>
-      <c r="F76" t="s">
-        <v>6</v>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>-0.875</v>
       </c>
       <c r="H76">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B77">
         <v>24</v>
@@ -2457,22 +2399,22 @@
       <c r="D77">
         <v>8</v>
       </c>
-      <c r="E77">
-        <v>3</v>
-      </c>
-      <c r="F77" t="s">
-        <v>6</v>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
       </c>
       <c r="G77">
         <v>1.0125</v>
       </c>
       <c r="H77">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B78">
         <v>24</v>
@@ -2483,11 +2425,11 @@
       <c r="D78">
         <v>8</v>
       </c>
-      <c r="E78">
-        <v>4</v>
-      </c>
-      <c r="F78" t="s">
-        <v>6</v>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
       </c>
       <c r="G78">
         <v>-1.2</v>
@@ -2496,9 +2438,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B79">
         <v>24</v>
@@ -2509,11 +2451,11 @@
       <c r="D79">
         <v>9</v>
       </c>
-      <c r="E79">
-        <v>3</v>
-      </c>
-      <c r="F79" t="s">
-        <v>6</v>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
       </c>
       <c r="G79">
         <v>0.7</v>
@@ -2522,9 +2464,9 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -2535,22 +2477,22 @@
       <c r="D80">
         <v>9</v>
       </c>
-      <c r="E80">
-        <v>4</v>
-      </c>
-      <c r="F80" t="s">
-        <v>6</v>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
       </c>
       <c r="G80">
-        <v>-1.1000000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="H80">
         <v>0.8</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B81">
         <v>24</v>
@@ -2561,11 +2503,11 @@
       <c r="D81">
         <v>10</v>
       </c>
-      <c r="E81">
-        <v>4</v>
-      </c>
-      <c r="F81" t="s">
-        <v>5</v>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
       </c>
       <c r="G81">
         <v>0.9</v>
@@ -2574,9 +2516,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B82">
         <v>24</v>
@@ -2587,11 +2529,11 @@
       <c r="D82">
         <v>10</v>
       </c>
-      <c r="E82">
-        <v>4</v>
-      </c>
-      <c r="F82" t="s">
-        <v>5</v>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
       </c>
       <c r="G82">
         <v>-0.75</v>
@@ -2600,9 +2542,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B83">
         <v>24</v>
@@ -2613,22 +2555,22 @@
       <c r="D83">
         <v>11</v>
       </c>
-      <c r="E83">
-        <v>4</v>
-      </c>
-      <c r="F83" t="s">
-        <v>6</v>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
       </c>
       <c r="G83">
-        <v>-0.67500000000000004</v>
+        <v>-0.675</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B84">
         <v>24</v>
@@ -2639,22 +2581,22 @@
       <c r="D84">
         <v>12</v>
       </c>
-      <c r="E84">
-        <v>4</v>
-      </c>
-      <c r="F84" t="s">
-        <v>6</v>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
       </c>
       <c r="G84">
-        <v>-0.65</v>
+        <v>1.35</v>
       </c>
       <c r="H84">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B85">
         <v>24</v>
@@ -2665,22 +2607,22 @@
       <c r="D85">
         <v>12</v>
       </c>
-      <c r="E85">
-        <v>3</v>
-      </c>
-      <c r="F85" t="s">
-        <v>6</v>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
       </c>
       <c r="G85">
-        <v>1.35</v>
+        <v>-0.65</v>
       </c>
       <c r="H85">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B86">
         <v>24</v>
@@ -2691,22 +2633,22 @@
       <c r="D86">
         <v>13</v>
       </c>
-      <c r="E86">
-        <v>3</v>
-      </c>
-      <c r="F86" t="s">
-        <v>6</v>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
       </c>
       <c r="G86">
-        <v>0.77500000000000002</v>
+        <v>0.775</v>
       </c>
       <c r="H86">
         <v>0.8</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B87">
         <v>24</v>
@@ -2717,22 +2659,22 @@
       <c r="D87">
         <v>13</v>
       </c>
-      <c r="E87">
-        <v>4</v>
-      </c>
-      <c r="F87" t="s">
-        <v>6</v>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
       </c>
       <c r="G87">
-        <v>-1.1499999999999999</v>
+        <v>-1.15</v>
       </c>
       <c r="H87">
         <v>0.75</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B88">
         <v>24</v>
@@ -2743,11 +2685,11 @@
       <c r="D88">
         <v>14</v>
       </c>
-      <c r="E88">
-        <v>4</v>
-      </c>
-      <c r="F88" t="s">
-        <v>6</v>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
       </c>
       <c r="G88">
         <v>-0.75</v>
@@ -2756,9 +2698,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B89">
         <v>24</v>
@@ -2769,22 +2711,22 @@
       <c r="D89">
         <v>16</v>
       </c>
-      <c r="E89">
-        <v>4</v>
-      </c>
-      <c r="F89" t="s">
-        <v>6</v>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
       </c>
       <c r="G89">
-        <v>-0.47499999999999998</v>
+        <v>-0.475</v>
       </c>
       <c r="H89">
         <v>0.8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B90">
         <v>24</v>
@@ -2795,11 +2737,11 @@
       <c r="D90">
         <v>17</v>
       </c>
-      <c r="E90">
-        <v>4</v>
-      </c>
-      <c r="F90" t="s">
-        <v>6</v>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
       </c>
       <c r="G90">
         <v>-0.95</v>
@@ -2808,9 +2750,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B91">
         <v>28</v>
@@ -2821,22 +2763,22 @@
       <c r="D91">
         <v>1</v>
       </c>
-      <c r="E91">
-        <v>3</v>
-      </c>
-      <c r="F91" t="s">
-        <v>6</v>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
       </c>
       <c r="G91">
         <v>1.5</v>
       </c>
       <c r="H91">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B92">
         <v>28</v>
@@ -2847,22 +2789,22 @@
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="E92">
-        <v>4</v>
-      </c>
-      <c r="F92" t="s">
-        <v>6</v>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
       </c>
       <c r="G92">
-        <v>-0.97499999999999998</v>
+        <v>-0.975</v>
       </c>
       <c r="H92">
         <v>0.95</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B93">
         <v>28</v>
@@ -2873,11 +2815,11 @@
       <c r="D93">
         <v>3</v>
       </c>
-      <c r="E93">
-        <v>4</v>
-      </c>
-      <c r="F93" t="s">
-        <v>5</v>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
       </c>
       <c r="G93">
         <v>-0.9</v>
@@ -2886,9 +2828,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B94">
         <v>28</v>
@@ -2899,11 +2841,11 @@
       <c r="D94">
         <v>3</v>
       </c>
-      <c r="E94">
-        <v>4</v>
-      </c>
-      <c r="F94" t="s">
-        <v>5</v>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
       </c>
       <c r="G94">
         <v>1.85</v>
@@ -2912,9 +2854,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B95">
         <v>28</v>
@@ -2925,11 +2867,11 @@
       <c r="D95">
         <v>4</v>
       </c>
-      <c r="E95">
-        <v>4</v>
-      </c>
-      <c r="F95" t="s">
-        <v>6</v>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
       </c>
       <c r="G95">
         <v>-0.75</v>
@@ -2938,9 +2880,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B96">
         <v>28</v>
@@ -2951,22 +2893,22 @@
       <c r="D96">
         <v>5</v>
       </c>
-      <c r="E96">
-        <v>4</v>
-      </c>
-      <c r="F96" t="s">
-        <v>6</v>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
       </c>
       <c r="G96">
-        <v>-0.82499999999999996</v>
+        <v>-0.825</v>
       </c>
       <c r="H96">
         <v>0.85</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B97">
         <v>28</v>
@@ -2977,22 +2919,22 @@
       <c r="D97">
         <v>6</v>
       </c>
-      <c r="E97">
-        <v>4</v>
-      </c>
-      <c r="F97" t="s">
-        <v>6</v>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
       </c>
       <c r="G97">
-        <v>-0.42499999999999999</v>
+        <v>-0.425</v>
       </c>
       <c r="H97">
         <v>0.9</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B98">
         <v>28</v>
@@ -3003,22 +2945,22 @@
       <c r="D98">
         <v>7</v>
       </c>
-      <c r="E98">
-        <v>4</v>
-      </c>
-      <c r="F98" t="s">
-        <v>6</v>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
       </c>
       <c r="G98">
-        <v>-0.82499999999999996</v>
+        <v>-0.825</v>
       </c>
       <c r="H98">
         <v>0.75</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B99">
         <v>28</v>
@@ -3029,22 +2971,22 @@
       <c r="D99">
         <v>8</v>
       </c>
-      <c r="E99">
-        <v>4</v>
-      </c>
-      <c r="F99" t="s">
-        <v>5</v>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
       </c>
       <c r="G99">
-        <v>-1.1000000000000001</v>
+        <v>-0.6</v>
       </c>
       <c r="H99">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B100">
         <v>28</v>
@@ -3055,11 +2997,11 @@
       <c r="D100">
         <v>8</v>
       </c>
-      <c r="E100">
-        <v>4</v>
-      </c>
-      <c r="F100" t="s">
-        <v>5</v>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
       </c>
       <c r="G100">
         <v>0.65</v>
@@ -3068,9 +3010,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B101">
         <v>28</v>
@@ -3081,22 +3023,22 @@
       <c r="D101">
         <v>9</v>
       </c>
-      <c r="E101">
-        <v>4</v>
-      </c>
-      <c r="F101" t="s">
-        <v>6</v>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
       </c>
       <c r="G101">
-        <v>-0.55000000000000004</v>
+        <v>-0.55</v>
       </c>
       <c r="H101">
         <v>0.75</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B102">
         <v>28</v>
@@ -3107,11 +3049,11 @@
       <c r="D102">
         <v>10</v>
       </c>
-      <c r="E102">
-        <v>3</v>
-      </c>
-      <c r="F102" t="s">
-        <v>6</v>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
       </c>
       <c r="G102">
         <v>0.7</v>
@@ -3120,9 +3062,9 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B103">
         <v>28</v>
@@ -3133,11 +3075,11 @@
       <c r="D103">
         <v>10</v>
       </c>
-      <c r="E103">
-        <v>4</v>
-      </c>
-      <c r="F103" t="s">
-        <v>6</v>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
       </c>
       <c r="G103">
         <v>-1.4</v>
@@ -3146,9 +3088,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B104">
         <v>28</v>
@@ -3159,11 +3101,11 @@
       <c r="D104">
         <v>1</v>
       </c>
-      <c r="E104">
-        <v>4</v>
-      </c>
-      <c r="F104" t="s">
-        <v>5</v>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
       </c>
       <c r="G104">
         <v>-1.5</v>
@@ -3172,9 +3114,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B105">
         <v>28</v>
@@ -3185,11 +3127,11 @@
       <c r="D105">
         <v>1</v>
       </c>
-      <c r="E105">
-        <v>4</v>
-      </c>
-      <c r="F105" t="s">
-        <v>5</v>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
       </c>
       <c r="G105">
         <v>0.6</v>
@@ -3198,9 +3140,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B106">
         <v>28</v>
@@ -3211,11 +3153,11 @@
       <c r="D106">
         <v>2</v>
       </c>
-      <c r="E106">
-        <v>4</v>
-      </c>
-      <c r="F106" t="s">
-        <v>5</v>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106">
+        <v>4</v>
       </c>
       <c r="G106">
         <v>-0.9</v>
@@ -3224,9 +3166,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B107">
         <v>28</v>
@@ -3237,11 +3179,11 @@
       <c r="D107">
         <v>2</v>
       </c>
-      <c r="E107">
-        <v>4</v>
-      </c>
-      <c r="F107" t="s">
-        <v>5</v>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107">
+        <v>4</v>
       </c>
       <c r="G107">
         <v>0.5</v>
@@ -3250,9 +3192,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B108">
         <v>28</v>
@@ -3263,11 +3205,11 @@
       <c r="D108">
         <v>3</v>
       </c>
-      <c r="E108">
-        <v>4</v>
-      </c>
-      <c r="F108" t="s">
-        <v>5</v>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
       </c>
       <c r="G108">
         <v>-0.75</v>
@@ -3276,9 +3218,9 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B109">
         <v>28</v>
@@ -3289,22 +3231,22 @@
       <c r="D109">
         <v>3</v>
       </c>
-      <c r="E109">
-        <v>4</v>
-      </c>
-      <c r="F109" t="s">
-        <v>5</v>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109">
+        <v>4</v>
       </c>
       <c r="G109">
-        <v>0.67500000000000004</v>
+        <v>0.675</v>
       </c>
       <c r="H109">
         <v>1.2</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B110">
         <v>28</v>
@@ -3315,11 +3257,11 @@
       <c r="D110">
         <v>4</v>
       </c>
-      <c r="E110">
-        <v>3</v>
-      </c>
-      <c r="F110" t="s">
-        <v>6</v>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110">
+        <v>3</v>
       </c>
       <c r="G110">
         <v>0.8</v>
@@ -3328,9 +3270,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B111">
         <v>28</v>
@@ -3341,11 +3283,11 @@
       <c r="D111">
         <v>4</v>
       </c>
-      <c r="E111">
-        <v>4</v>
-      </c>
-      <c r="F111" t="s">
-        <v>6</v>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111">
+        <v>4</v>
       </c>
       <c r="G111">
         <v>-0.7</v>
@@ -3354,9 +3296,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B112">
         <v>28</v>
@@ -3367,11 +3309,11 @@
       <c r="D112">
         <v>8</v>
       </c>
-      <c r="E112">
-        <v>4</v>
-      </c>
-      <c r="F112" t="s">
-        <v>5</v>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112">
+        <v>4</v>
       </c>
       <c r="G112">
         <v>-0.95</v>
@@ -3380,9 +3322,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B113">
         <v>28</v>
@@ -3393,11 +3335,11 @@
       <c r="D113">
         <v>8</v>
       </c>
-      <c r="E113">
-        <v>4</v>
-      </c>
-      <c r="F113" t="s">
-        <v>5</v>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113">
+        <v>4</v>
       </c>
       <c r="G113">
         <v>0.45</v>
@@ -3406,9 +3348,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B114">
         <v>28</v>
@@ -3419,11 +3361,11 @@
       <c r="D114">
         <v>10</v>
       </c>
-      <c r="E114">
-        <v>4</v>
-      </c>
-      <c r="F114" t="s">
-        <v>6</v>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114">
+        <v>4</v>
       </c>
       <c r="G114">
         <v>-0.625</v>
@@ -3432,9 +3374,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B115">
         <v>28</v>
@@ -3445,22 +3387,22 @@
       <c r="D115">
         <v>11</v>
       </c>
-      <c r="E115">
-        <v>4</v>
-      </c>
-      <c r="F115" t="s">
-        <v>6</v>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115">
+        <v>4</v>
       </c>
       <c r="G115">
-        <v>-0.48333333299999998</v>
+        <v>-0.483333333</v>
       </c>
       <c r="H115">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B116">
         <v>28</v>
@@ -3471,11 +3413,11 @@
       <c r="D116">
         <v>12</v>
       </c>
-      <c r="E116">
-        <v>4</v>
-      </c>
-      <c r="F116" t="s">
-        <v>5</v>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116">
+        <v>4</v>
       </c>
       <c r="G116">
         <v>-0.75</v>
@@ -3484,9 +3426,9 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B117">
         <v>28</v>
@@ -3497,11 +3439,11 @@
       <c r="D117">
         <v>12</v>
       </c>
-      <c r="E117">
-        <v>4</v>
-      </c>
-      <c r="F117" t="s">
-        <v>5</v>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
       </c>
       <c r="G117">
         <v>0.65</v>
@@ -3510,9 +3452,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B118">
         <v>28</v>
@@ -3523,22 +3465,22 @@
       <c r="D118">
         <v>13</v>
       </c>
-      <c r="E118">
-        <v>3</v>
-      </c>
-      <c r="F118" t="s">
-        <v>6</v>
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
       </c>
       <c r="G118">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H118">
         <v>1.25</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B119">
         <v>28</v>
@@ -3549,11 +3491,11 @@
       <c r="D119">
         <v>13</v>
       </c>
-      <c r="E119">
-        <v>4</v>
-      </c>
-      <c r="F119" t="s">
-        <v>6</v>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119">
+        <v>4</v>
       </c>
       <c r="G119">
         <v>-0.45</v>
@@ -3562,9 +3504,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B120">
         <v>28</v>
@@ -3575,22 +3517,22 @@
       <c r="D120">
         <v>14</v>
       </c>
-      <c r="E120">
-        <v>4</v>
-      </c>
-      <c r="F120" t="s">
-        <v>5</v>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120">
+        <v>4</v>
       </c>
       <c r="G120">
-        <v>-0.82499999999999996</v>
+        <v>-0.825</v>
       </c>
       <c r="H120">
         <v>1.25</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B121">
         <v>28</v>
@@ -3601,11 +3543,11 @@
       <c r="D121">
         <v>14</v>
       </c>
-      <c r="E121">
-        <v>4</v>
-      </c>
-      <c r="F121" t="s">
-        <v>5</v>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121">
+        <v>4</v>
       </c>
       <c r="G121">
         <v>0.625</v>
@@ -3614,9 +3556,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B122">
         <v>28</v>
@@ -3627,11 +3569,11 @@
       <c r="D122">
         <v>15</v>
       </c>
-      <c r="E122">
-        <v>3</v>
-      </c>
-      <c r="F122" t="s">
-        <v>6</v>
+      <c r="E122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122">
+        <v>3</v>
       </c>
       <c r="G122">
         <v>0.5</v>
@@ -3640,9 +3582,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B123">
         <v>28</v>
@@ -3653,11 +3595,11 @@
       <c r="D123">
         <v>15</v>
       </c>
-      <c r="E123">
-        <v>4</v>
-      </c>
-      <c r="F123" t="s">
-        <v>6</v>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123">
+        <v>4</v>
       </c>
       <c r="G123">
         <v>-0.85</v>
@@ -3666,9 +3608,9 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B124">
         <v>28</v>
@@ -3679,11 +3621,11 @@
       <c r="D124">
         <v>16</v>
       </c>
-      <c r="E124">
-        <v>4</v>
-      </c>
-      <c r="F124" t="s">
-        <v>6</v>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124">
+        <v>4</v>
       </c>
       <c r="G124">
         <v>-0.65</v>
@@ -3692,9 +3634,9 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B125">
         <v>28</v>
@@ -3705,11 +3647,11 @@
       <c r="D125">
         <v>17</v>
       </c>
-      <c r="E125">
-        <v>3</v>
-      </c>
-      <c r="F125" t="s">
-        <v>6</v>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125">
+        <v>3</v>
       </c>
       <c r="G125">
         <v>0.45</v>
@@ -3718,9 +3660,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B126">
         <v>28</v>
@@ -3731,22 +3673,22 @@
       <c r="D126">
         <v>17</v>
       </c>
-      <c r="E126">
-        <v>4</v>
-      </c>
-      <c r="F126" t="s">
-        <v>6</v>
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126">
+        <v>4</v>
       </c>
       <c r="G126">
-        <v>-0.52500000000000002</v>
+        <v>-0.525</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B127">
         <v>28</v>
@@ -3757,11 +3699,11 @@
       <c r="D127">
         <v>18</v>
       </c>
-      <c r="E127">
-        <v>4</v>
-      </c>
-      <c r="F127" t="s">
-        <v>6</v>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127">
+        <v>4</v>
       </c>
       <c r="G127">
         <v>-0.7</v>
@@ -3770,9 +3712,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B128">
         <v>28</v>
@@ -3783,11 +3725,11 @@
       <c r="D128">
         <v>19</v>
       </c>
-      <c r="E128">
-        <v>3</v>
-      </c>
-      <c r="F128" t="s">
-        <v>6</v>
+      <c r="E128" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128">
+        <v>3</v>
       </c>
       <c r="G128">
         <v>0.75</v>
@@ -3796,9 +3738,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B129">
         <v>28</v>
@@ -3809,11 +3751,11 @@
       <c r="D129">
         <v>19</v>
       </c>
-      <c r="E129">
-        <v>4</v>
-      </c>
-      <c r="F129" t="s">
-        <v>6</v>
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129">
+        <v>4</v>
       </c>
       <c r="G129">
         <v>-0.625</v>
@@ -3822,9 +3764,9 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B130">
         <v>28</v>
@@ -3835,11 +3777,11 @@
       <c r="D130">
         <v>20</v>
       </c>
-      <c r="E130">
-        <v>4</v>
-      </c>
-      <c r="F130" t="s">
-        <v>6</v>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130">
+        <v>4</v>
       </c>
       <c r="G130">
         <v>-1.125</v>
@@ -3848,9 +3790,9 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B131">
         <v>28</v>
@@ -3861,11 +3803,11 @@
       <c r="D131">
         <v>21</v>
       </c>
-      <c r="E131">
-        <v>4</v>
-      </c>
-      <c r="F131" t="s">
-        <v>6</v>
+      <c r="E131" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131">
+        <v>4</v>
       </c>
       <c r="G131">
         <v>-0.65</v>
@@ -3874,9 +3816,9 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B132">
         <v>28</v>
@@ -3887,22 +3829,22 @@
       <c r="D132">
         <v>22</v>
       </c>
-      <c r="E132">
-        <v>4</v>
-      </c>
-      <c r="F132" t="s">
-        <v>6</v>
+      <c r="E132" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132">
+        <v>4</v>
       </c>
       <c r="G132">
-        <v>-0.51249999999999996</v>
+        <v>-0.5125</v>
       </c>
       <c r="H132">
         <v>1.05</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B133">
         <v>28</v>
@@ -3913,22 +3855,22 @@
       <c r="D133">
         <v>23</v>
       </c>
-      <c r="E133">
-        <v>4</v>
-      </c>
-      <c r="F133" t="s">
-        <v>6</v>
+      <c r="E133" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133">
+        <v>4</v>
       </c>
       <c r="G133">
-        <v>-0.45833333300000001</v>
+        <v>-0.458333333</v>
       </c>
       <c r="H133">
         <v>1.05</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B134">
         <v>28</v>
@@ -3939,22 +3881,22 @@
       <c r="D134">
         <v>24</v>
       </c>
-      <c r="E134">
-        <v>4</v>
-      </c>
-      <c r="F134" t="s">
-        <v>6</v>
+      <c r="E134" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134">
+        <v>4</v>
       </c>
       <c r="G134">
-        <v>-0.72499999999999998</v>
+        <v>-0.725</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B135">
         <v>28</v>
@@ -3965,11 +3907,11 @@
       <c r="D135">
         <v>25</v>
       </c>
-      <c r="E135">
-        <v>4</v>
-      </c>
-      <c r="F135" t="s">
-        <v>6</v>
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135">
+        <v>4</v>
       </c>
       <c r="G135">
         <v>-1.75</v>
@@ -3978,9 +3920,9 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B136">
         <v>28</v>
@@ -3991,11 +3933,11 @@
       <c r="D136">
         <v>26</v>
       </c>
-      <c r="E136">
-        <v>4</v>
-      </c>
-      <c r="F136" t="s">
-        <v>6</v>
+      <c r="E136" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136">
+        <v>4</v>
       </c>
       <c r="G136">
         <v>-0.75</v>
@@ -4004,9 +3946,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B137">
         <v>28</v>
@@ -4017,22 +3959,22 @@
       <c r="D137">
         <v>28</v>
       </c>
-      <c r="E137">
-        <v>4</v>
-      </c>
-      <c r="F137" t="s">
-        <v>5</v>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137">
+        <v>4</v>
       </c>
       <c r="G137">
         <v>-0.75</v>
       </c>
       <c r="H137">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B138">
         <v>28</v>
@@ -4043,22 +3985,22 @@
       <c r="D138">
         <v>28</v>
       </c>
-      <c r="E138">
-        <v>4</v>
-      </c>
-      <c r="F138" t="s">
-        <v>5</v>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138">
+        <v>4</v>
       </c>
       <c r="G138">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="H138">
         <v>1.2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B139">
         <v>28</v>
@@ -4069,11 +4011,11 @@
       <c r="D139">
         <v>29</v>
       </c>
-      <c r="E139">
-        <v>4</v>
-      </c>
-      <c r="F139" t="s">
-        <v>6</v>
+      <c r="E139" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139">
+        <v>4</v>
       </c>
       <c r="G139">
         <v>-1.05</v>
@@ -4082,9 +4024,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B140">
         <v>28</v>
@@ -4095,11 +4037,11 @@
       <c r="D140">
         <v>30</v>
       </c>
-      <c r="E140">
-        <v>4</v>
-      </c>
-      <c r="F140" t="s">
-        <v>6</v>
+      <c r="E140" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140">
+        <v>4</v>
       </c>
       <c r="G140">
         <v>-0.79</v>
@@ -4108,9 +4050,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B141">
         <v>28</v>
@@ -4121,11 +4063,11 @@
       <c r="D141">
         <v>31</v>
       </c>
-      <c r="E141">
-        <v>4</v>
-      </c>
-      <c r="F141" t="s">
-        <v>5</v>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141">
+        <v>4</v>
       </c>
       <c r="G141">
         <v>-0.5</v>
@@ -4134,9 +4076,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B142">
         <v>28</v>
@@ -4147,11 +4089,11 @@
       <c r="D142">
         <v>31</v>
       </c>
-      <c r="E142">
-        <v>4</v>
-      </c>
-      <c r="F142" t="s">
-        <v>5</v>
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142">
+        <v>4</v>
       </c>
       <c r="G142">
         <v>1.05</v>
@@ -4160,9 +4102,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B143">
         <v>28</v>
@@ -4173,11 +4115,11 @@
       <c r="D143">
         <v>32</v>
       </c>
-      <c r="E143">
-        <v>3</v>
-      </c>
-      <c r="F143" t="s">
-        <v>6</v>
+      <c r="E143" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143">
+        <v>3</v>
       </c>
       <c r="G143">
         <v>0.65</v>
@@ -4186,9 +4128,9 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B144">
         <v>28</v>
@@ -4199,22 +4141,22 @@
       <c r="D144">
         <v>32</v>
       </c>
-      <c r="E144">
-        <v>4</v>
-      </c>
-      <c r="F144" t="s">
-        <v>6</v>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144">
+        <v>4</v>
       </c>
       <c r="G144">
-        <v>-0.70833333300000001</v>
+        <v>-0.708333333</v>
       </c>
       <c r="H144">
         <v>0.95</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B145">
         <v>28</v>
@@ -4225,11 +4167,11 @@
       <c r="D145">
         <v>33</v>
       </c>
-      <c r="E145">
-        <v>4</v>
-      </c>
-      <c r="F145" t="s">
-        <v>6</v>
+      <c r="E145" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145">
+        <v>4</v>
       </c>
       <c r="G145">
         <v>-0.75</v>
@@ -4238,9 +4180,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B146">
         <v>28</v>
@@ -4251,11 +4193,11 @@
       <c r="D146">
         <v>69</v>
       </c>
-      <c r="E146">
-        <v>4</v>
-      </c>
-      <c r="F146" t="s">
-        <v>6</v>
+      <c r="E146" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146">
+        <v>4</v>
       </c>
       <c r="G146">
         <v>-0.875</v>
@@ -4264,9 +4206,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B147">
         <v>28</v>
@@ -4277,11 +4219,11 @@
       <c r="D147">
         <v>1</v>
       </c>
-      <c r="E147">
-        <v>4</v>
-      </c>
-      <c r="F147" t="s">
-        <v>5</v>
+      <c r="E147" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147">
+        <v>4</v>
       </c>
       <c r="G147">
         <v>-1.25</v>
@@ -4290,9 +4232,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B148">
         <v>28</v>
@@ -4303,11 +4245,11 @@
       <c r="D148">
         <v>1</v>
       </c>
-      <c r="E148">
-        <v>4</v>
-      </c>
-      <c r="F148" t="s">
-        <v>5</v>
+      <c r="E148" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148">
+        <v>4</v>
       </c>
       <c r="G148">
         <v>0.65</v>
@@ -4316,9 +4258,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B149">
         <v>28</v>
@@ -4329,11 +4271,11 @@
       <c r="D149">
         <v>2</v>
       </c>
-      <c r="E149">
-        <v>3</v>
-      </c>
-      <c r="F149" t="s">
-        <v>6</v>
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
       </c>
       <c r="G149">
         <v>0.6</v>
@@ -4342,9 +4284,9 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B150">
         <v>28</v>
@@ -4355,22 +4297,22 @@
       <c r="D150">
         <v>2</v>
       </c>
-      <c r="E150">
-        <v>4</v>
-      </c>
-      <c r="F150" t="s">
-        <v>6</v>
+      <c r="E150" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150">
+        <v>4</v>
       </c>
       <c r="G150">
-        <v>-0.47499999999999998</v>
+        <v>-0.475</v>
       </c>
       <c r="H150">
         <v>1.05</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B151">
         <v>28</v>
@@ -4381,22 +4323,22 @@
       <c r="D151">
         <v>3</v>
       </c>
-      <c r="E151">
-        <v>4</v>
-      </c>
-      <c r="F151" t="s">
-        <v>6</v>
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151">
+        <v>4</v>
       </c>
       <c r="G151">
-        <v>-0.67500000000000004</v>
+        <v>-0.675</v>
       </c>
       <c r="H151">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B152">
         <v>28</v>
@@ -4407,22 +4349,22 @@
       <c r="D152">
         <v>4</v>
       </c>
-      <c r="E152">
-        <v>4</v>
-      </c>
-      <c r="F152" t="s">
-        <v>6</v>
+      <c r="E152" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
       </c>
       <c r="G152">
-        <v>-0.72499999999999998</v>
+        <v>-0.725</v>
       </c>
       <c r="H152">
         <v>0.9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B153">
         <v>28</v>
@@ -4433,11 +4375,11 @@
       <c r="D153">
         <v>5</v>
       </c>
-      <c r="E153">
-        <v>3</v>
-      </c>
-      <c r="F153" t="s">
-        <v>6</v>
+      <c r="E153" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153">
+        <v>3</v>
       </c>
       <c r="G153">
         <v>0.4</v>
@@ -4446,9 +4388,9 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B154">
         <v>28</v>
@@ -4459,22 +4401,22 @@
       <c r="D154">
         <v>5</v>
       </c>
-      <c r="E154">
-        <v>4</v>
-      </c>
-      <c r="F154" t="s">
-        <v>6</v>
+      <c r="E154" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154">
+        <v>4</v>
       </c>
       <c r="G154">
-        <v>-0.83750000000000002</v>
+        <v>-0.8375</v>
       </c>
       <c r="H154">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B155">
         <v>28</v>
@@ -4485,22 +4427,22 @@
       <c r="D155">
         <v>6</v>
       </c>
-      <c r="E155">
-        <v>3</v>
-      </c>
-      <c r="F155" t="s">
-        <v>6</v>
+      <c r="E155" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155">
+        <v>3</v>
       </c>
       <c r="G155">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="H155">
         <v>1.6</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B156">
         <v>28</v>
@@ -4511,11 +4453,11 @@
       <c r="D156">
         <v>6</v>
       </c>
-      <c r="E156">
-        <v>4</v>
-      </c>
-      <c r="F156" t="s">
-        <v>6</v>
+      <c r="E156" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
       </c>
       <c r="G156">
         <v>-0.7</v>
@@ -4524,9 +4466,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B157">
         <v>28</v>
@@ -4537,22 +4479,22 @@
       <c r="D157">
         <v>7</v>
       </c>
-      <c r="E157">
-        <v>4</v>
-      </c>
-      <c r="F157" t="s">
-        <v>5</v>
+      <c r="E157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157">
+        <v>4</v>
       </c>
       <c r="G157">
-        <v>-0.57499999999999996</v>
+        <v>-0.575</v>
       </c>
       <c r="H157">
         <v>0.8</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B158">
         <v>28</v>
@@ -4563,22 +4505,22 @@
       <c r="D158">
         <v>7</v>
       </c>
-      <c r="E158">
-        <v>4</v>
-      </c>
-      <c r="F158" t="s">
-        <v>5</v>
+      <c r="E158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158">
+        <v>4</v>
       </c>
       <c r="G158">
-        <v>0.82499999999999996</v>
+        <v>0.825</v>
       </c>
       <c r="H158">
         <v>0.85</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B159">
         <v>28</v>
@@ -4589,11 +4531,11 @@
       <c r="D159">
         <v>8</v>
       </c>
-      <c r="E159">
-        <v>4</v>
-      </c>
-      <c r="F159" t="s">
-        <v>6</v>
+      <c r="E159" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159">
+        <v>4</v>
       </c>
       <c r="G159">
         <v>-1.0625</v>
@@ -4602,9 +4544,9 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B160">
         <v>28</v>
@@ -4615,22 +4557,22 @@
       <c r="D160">
         <v>9</v>
       </c>
-      <c r="E160">
-        <v>4</v>
-      </c>
-      <c r="F160" t="s">
-        <v>5</v>
+      <c r="E160" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160">
+        <v>4</v>
       </c>
       <c r="G160">
         <v>-0.75</v>
       </c>
       <c r="H160">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B161">
         <v>28</v>
@@ -4641,11 +4583,11 @@
       <c r="D161">
         <v>9</v>
       </c>
-      <c r="E161">
-        <v>4</v>
-      </c>
-      <c r="F161" t="s">
-        <v>5</v>
+      <c r="E161" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161">
+        <v>4</v>
       </c>
       <c r="G161">
         <v>0.7</v>
@@ -4654,9 +4596,9 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B162">
         <v>28</v>
@@ -4667,22 +4609,22 @@
       <c r="D162">
         <v>10</v>
       </c>
-      <c r="E162">
-        <v>3</v>
-      </c>
-      <c r="F162" t="s">
-        <v>6</v>
+      <c r="E162" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162">
+        <v>3</v>
       </c>
       <c r="G162">
-        <v>0.57499999999999996</v>
+        <v>0.575</v>
       </c>
       <c r="H162">
         <v>1.55</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B163">
         <v>28</v>
@@ -4693,11 +4635,11 @@
       <c r="D163">
         <v>10</v>
       </c>
-      <c r="E163">
-        <v>4</v>
-      </c>
-      <c r="F163" t="s">
-        <v>6</v>
+      <c r="E163" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163">
+        <v>4</v>
       </c>
       <c r="G163">
         <v>-0.95</v>
@@ -4706,9 +4648,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B164">
         <v>28</v>
@@ -4719,11 +4661,11 @@
       <c r="D164">
         <v>11</v>
       </c>
-      <c r="E164">
-        <v>4</v>
-      </c>
-      <c r="F164" t="s">
-        <v>6</v>
+      <c r="E164" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164">
+        <v>4</v>
       </c>
       <c r="G164">
         <v>-0.875</v>
@@ -4732,9 +4674,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B165">
         <v>28</v>
@@ -4745,11 +4687,11 @@
       <c r="D165">
         <v>12</v>
       </c>
-      <c r="E165">
-        <v>3</v>
-      </c>
-      <c r="F165" t="s">
-        <v>6</v>
+      <c r="E165" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165">
+        <v>3</v>
       </c>
       <c r="G165">
         <v>0.6</v>
@@ -4758,9 +4700,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B166">
         <v>28</v>
@@ -4771,22 +4713,22 @@
       <c r="D166">
         <v>12</v>
       </c>
-      <c r="E166">
-        <v>4</v>
-      </c>
-      <c r="F166" t="s">
-        <v>6</v>
+      <c r="E166" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166">
+        <v>4</v>
       </c>
       <c r="G166">
-        <v>-0.92500000000000004</v>
+        <v>-0.925</v>
       </c>
       <c r="H166">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B167">
         <v>28</v>
@@ -4797,22 +4739,22 @@
       <c r="D167">
         <v>13</v>
       </c>
-      <c r="E167">
-        <v>4</v>
-      </c>
-      <c r="F167" t="s">
-        <v>6</v>
+      <c r="E167" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167">
+        <v>4</v>
       </c>
       <c r="G167">
-        <v>-0.97499999999999998</v>
+        <v>-0.975</v>
       </c>
       <c r="H167">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B168">
         <v>28</v>
@@ -4823,11 +4765,11 @@
       <c r="D168">
         <v>14</v>
       </c>
-      <c r="E168">
-        <v>3</v>
-      </c>
-      <c r="F168" t="s">
-        <v>6</v>
+      <c r="E168" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168">
+        <v>3</v>
       </c>
       <c r="G168">
         <v>0.65</v>
@@ -4836,9 +4778,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B169">
         <v>28</v>
@@ -4849,11 +4791,11 @@
       <c r="D169">
         <v>14</v>
       </c>
-      <c r="E169">
-        <v>4</v>
-      </c>
-      <c r="F169" t="s">
-        <v>6</v>
+      <c r="E169" t="s">
+        <v>10</v>
+      </c>
+      <c r="F169">
+        <v>4</v>
       </c>
       <c r="G169">
         <v>-0.6</v>
@@ -4862,9 +4804,9 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B170">
         <v>28</v>
@@ -4875,11 +4817,11 @@
       <c r="D170">
         <v>16</v>
       </c>
-      <c r="E170">
-        <v>4</v>
-      </c>
-      <c r="F170" t="s">
-        <v>6</v>
+      <c r="E170" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170">
+        <v>4</v>
       </c>
       <c r="G170">
         <v>-0.85</v>
@@ -4888,9 +4830,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B171">
         <v>28</v>
@@ -4901,11 +4843,11 @@
       <c r="D171">
         <v>17</v>
       </c>
-      <c r="E171">
-        <v>4</v>
-      </c>
-      <c r="F171" t="s">
-        <v>6</v>
+      <c r="E171" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171">
+        <v>4</v>
       </c>
       <c r="G171">
         <v>-1.05</v>
@@ -4914,9 +4856,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B172">
         <v>28</v>
@@ -4927,22 +4869,22 @@
       <c r="D172">
         <v>18</v>
       </c>
-      <c r="E172">
-        <v>4</v>
-      </c>
-      <c r="F172" t="s">
-        <v>6</v>
+      <c r="E172" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172">
+        <v>4</v>
       </c>
       <c r="G172">
-        <v>-0.67500000000000004</v>
+        <v>-0.675</v>
       </c>
       <c r="H172">
         <v>0.75</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B173">
         <v>28</v>
@@ -4953,11 +4895,11 @@
       <c r="D173">
         <v>19</v>
       </c>
-      <c r="E173">
-        <v>4</v>
-      </c>
-      <c r="F173" t="s">
-        <v>6</v>
+      <c r="E173" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173">
+        <v>4</v>
       </c>
       <c r="G173">
         <v>-1.3</v>
@@ -4966,9 +4908,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B174">
         <v>28</v>
@@ -4979,22 +4921,22 @@
       <c r="D174">
         <v>20</v>
       </c>
-      <c r="E174">
-        <v>3</v>
-      </c>
-      <c r="F174" t="s">
-        <v>6</v>
+      <c r="E174" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174">
+        <v>3</v>
       </c>
       <c r="G174">
-        <v>0.42499999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="H174">
         <v>2.1</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B175">
         <v>28</v>
@@ -5005,22 +4947,22 @@
       <c r="D175">
         <v>20</v>
       </c>
-      <c r="E175">
-        <v>4</v>
-      </c>
-      <c r="F175" t="s">
-        <v>6</v>
+      <c r="E175" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175">
+        <v>4</v>
       </c>
       <c r="G175">
-        <v>-0.82499999999999996</v>
+        <v>-0.825</v>
       </c>
       <c r="H175">
         <v>1.4</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B176">
         <v>28</v>
@@ -5031,22 +4973,22 @@
       <c r="D176">
         <v>21</v>
       </c>
-      <c r="E176">
-        <v>4</v>
-      </c>
-      <c r="F176" t="s">
-        <v>6</v>
+      <c r="E176" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176">
+        <v>4</v>
       </c>
       <c r="G176">
-        <v>-0.72499999999999998</v>
+        <v>-0.725</v>
       </c>
       <c r="H176">
         <v>0.75</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B177">
         <v>28</v>
@@ -5057,11 +4999,11 @@
       <c r="D177">
         <v>22</v>
       </c>
-      <c r="E177">
-        <v>4</v>
-      </c>
-      <c r="F177" t="s">
-        <v>6</v>
+      <c r="E177" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177">
+        <v>4</v>
       </c>
       <c r="G177">
         <v>-0.75</v>
@@ -5070,9 +5012,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B178">
         <v>28</v>
@@ -5083,22 +5025,22 @@
       <c r="D178">
         <v>23</v>
       </c>
-      <c r="E178">
-        <v>3</v>
-      </c>
-      <c r="F178" t="s">
-        <v>6</v>
+      <c r="E178" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178">
+        <v>3</v>
       </c>
       <c r="G178">
-        <v>0.32500000000000001</v>
+        <v>0.325</v>
       </c>
       <c r="H178">
         <v>1.65</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B179">
         <v>28</v>
@@ -5109,22 +5051,22 @@
       <c r="D179">
         <v>23</v>
       </c>
-      <c r="E179">
-        <v>4</v>
-      </c>
-      <c r="F179" t="s">
-        <v>6</v>
+      <c r="E179" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179">
+        <v>4</v>
       </c>
       <c r="G179">
         <v>-0.75</v>
       </c>
       <c r="H179">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B180">
         <v>28</v>
@@ -5135,11 +5077,11 @@
       <c r="D180">
         <v>24</v>
       </c>
-      <c r="E180">
-        <v>3</v>
-      </c>
-      <c r="F180" t="s">
-        <v>6</v>
+      <c r="E180" t="s">
+        <v>10</v>
+      </c>
+      <c r="F180">
+        <v>3</v>
       </c>
       <c r="G180">
         <v>0.4</v>
@@ -5148,9 +5090,9 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B181">
         <v>28</v>
@@ -5161,11 +5103,11 @@
       <c r="D181">
         <v>24</v>
       </c>
-      <c r="E181">
-        <v>4</v>
-      </c>
-      <c r="F181" t="s">
-        <v>6</v>
+      <c r="E181" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181">
+        <v>4</v>
       </c>
       <c r="G181">
         <v>-0.85</v>
@@ -5174,9 +5116,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B182">
         <v>28</v>
@@ -5187,22 +5129,22 @@
       <c r="D182">
         <v>25</v>
       </c>
-      <c r="E182">
-        <v>4</v>
-      </c>
-      <c r="F182" t="s">
-        <v>6</v>
+      <c r="E182" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182">
+        <v>4</v>
       </c>
       <c r="G182">
-        <v>-0.32500000000000001</v>
+        <v>-0.325</v>
       </c>
       <c r="H182">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B183">
         <v>28</v>
@@ -5213,22 +5155,22 @@
       <c r="D183">
         <v>26</v>
       </c>
-      <c r="E183">
-        <v>4</v>
-      </c>
-      <c r="F183" t="s">
-        <v>6</v>
+      <c r="E183" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183">
+        <v>4</v>
       </c>
       <c r="G183">
-        <v>-0.72499999999999998</v>
+        <v>-0.725</v>
       </c>
       <c r="H183">
         <v>0.85</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B184">
         <v>28</v>
@@ -5239,11 +5181,11 @@
       <c r="D184">
         <v>27</v>
       </c>
-      <c r="E184">
-        <v>4</v>
-      </c>
-      <c r="F184" t="s">
-        <v>6</v>
+      <c r="E184" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184">
+        <v>4</v>
       </c>
       <c r="G184">
         <v>-0.6</v>
@@ -5252,9 +5194,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B185">
         <v>28</v>
@@ -5265,11 +5207,11 @@
       <c r="D185">
         <v>28</v>
       </c>
-      <c r="E185">
-        <v>4</v>
-      </c>
-      <c r="F185" t="s">
-        <v>6</v>
+      <c r="E185" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185">
+        <v>4</v>
       </c>
       <c r="G185">
         <v>-0.6</v>
@@ -5278,9 +5220,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B186">
         <v>28</v>
@@ -5291,22 +5233,22 @@
       <c r="D186">
         <v>29</v>
       </c>
-      <c r="E186">
-        <v>4</v>
-      </c>
-      <c r="F186" t="s">
-        <v>6</v>
+      <c r="E186" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186">
+        <v>4</v>
       </c>
       <c r="G186">
-        <v>-0.92500000000000004</v>
+        <v>-0.925</v>
       </c>
       <c r="H186">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B187">
         <v>28</v>
@@ -5317,22 +5259,22 @@
       <c r="D187">
         <v>30</v>
       </c>
-      <c r="E187">
-        <v>4</v>
-      </c>
-      <c r="F187" t="s">
-        <v>6</v>
+      <c r="E187" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187">
+        <v>4</v>
       </c>
       <c r="G187">
-        <v>-0.57499999999999996</v>
+        <v>-0.575</v>
       </c>
       <c r="H187">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B188">
         <v>28</v>
@@ -5343,22 +5285,22 @@
       <c r="D188">
         <v>31</v>
       </c>
-      <c r="E188">
-        <v>4</v>
-      </c>
-      <c r="F188" t="s">
-        <v>6</v>
+      <c r="E188" t="s">
+        <v>10</v>
+      </c>
+      <c r="F188">
+        <v>4</v>
       </c>
       <c r="G188">
-        <v>-0.52500000000000002</v>
+        <v>-0.525</v>
       </c>
       <c r="H188">
         <v>1.05</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B189">
         <v>28</v>
@@ -5369,11 +5311,11 @@
       <c r="D189">
         <v>32</v>
       </c>
-      <c r="E189">
-        <v>4</v>
-      </c>
-      <c r="F189" t="s">
-        <v>6</v>
+      <c r="E189" t="s">
+        <v>10</v>
+      </c>
+      <c r="F189">
+        <v>4</v>
       </c>
       <c r="G189">
         <v>-1.25</v>
@@ -5382,9 +5324,9 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B190">
         <v>28</v>
@@ -5395,22 +5337,22 @@
       <c r="D190">
         <v>1</v>
       </c>
-      <c r="E190">
-        <v>4</v>
-      </c>
-      <c r="F190" t="s">
-        <v>5</v>
+      <c r="E190" t="s">
+        <v>9</v>
+      </c>
+      <c r="F190">
+        <v>4</v>
       </c>
       <c r="G190">
         <v>-0.95</v>
       </c>
       <c r="H190">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B191">
         <v>28</v>
@@ -5421,22 +5363,22 @@
       <c r="D191">
         <v>1</v>
       </c>
-      <c r="E191">
-        <v>4</v>
-      </c>
-      <c r="F191" t="s">
-        <v>5</v>
+      <c r="E191" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191">
+        <v>4</v>
       </c>
       <c r="G191">
         <v>1.325</v>
       </c>
       <c r="H191">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B192">
         <v>28</v>
@@ -5447,11 +5389,11 @@
       <c r="D192">
         <v>2</v>
       </c>
-      <c r="E192">
-        <v>4</v>
-      </c>
-      <c r="F192" t="s">
-        <v>6</v>
+      <c r="E192" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192">
+        <v>4</v>
       </c>
       <c r="G192">
         <v>-0.6</v>
@@ -5460,9 +5402,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B193">
         <v>28</v>
@@ -5473,11 +5415,11 @@
       <c r="D193">
         <v>3</v>
       </c>
-      <c r="E193">
-        <v>4</v>
-      </c>
-      <c r="F193" t="s">
-        <v>6</v>
+      <c r="E193" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193">
+        <v>4</v>
       </c>
       <c r="G193">
         <v>-0.108333333</v>
@@ -5486,9 +5428,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B194">
         <v>28</v>
@@ -5499,11 +5441,11 @@
       <c r="D194">
         <v>4</v>
       </c>
-      <c r="E194">
-        <v>4</v>
-      </c>
-      <c r="F194" t="s">
-        <v>5</v>
+      <c r="E194" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194">
+        <v>4</v>
       </c>
       <c r="G194">
         <v>-0.75</v>
@@ -5512,9 +5454,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B195">
         <v>28</v>
@@ -5525,22 +5467,22 @@
       <c r="D195">
         <v>4</v>
       </c>
-      <c r="E195">
-        <v>4</v>
-      </c>
-      <c r="F195" t="s">
-        <v>5</v>
+      <c r="E195" t="s">
+        <v>9</v>
+      </c>
+      <c r="F195">
+        <v>4</v>
       </c>
       <c r="G195">
-        <v>0.92500000000000004</v>
+        <v>0.925</v>
       </c>
       <c r="H195">
         <v>0.9</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B196">
         <v>28</v>
@@ -5551,11 +5493,11 @@
       <c r="D196">
         <v>6</v>
       </c>
-      <c r="E196">
-        <v>4</v>
-      </c>
-      <c r="F196" t="s">
-        <v>6</v>
+      <c r="E196" t="s">
+        <v>10</v>
+      </c>
+      <c r="F196">
+        <v>4</v>
       </c>
       <c r="G196">
         <v>-0.45</v>
@@ -5564,9 +5506,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B197">
         <v>28</v>
@@ -5577,11 +5519,11 @@
       <c r="D197">
         <v>7</v>
       </c>
-      <c r="E197">
-        <v>3</v>
-      </c>
-      <c r="F197" t="s">
-        <v>6</v>
+      <c r="E197" t="s">
+        <v>10</v>
+      </c>
+      <c r="F197">
+        <v>3</v>
       </c>
       <c r="G197">
         <v>0.6875</v>
@@ -5590,9 +5532,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B198">
         <v>28</v>
@@ -5603,22 +5545,22 @@
       <c r="D198">
         <v>7</v>
       </c>
-      <c r="E198">
-        <v>4</v>
-      </c>
-      <c r="F198" t="s">
-        <v>6</v>
+      <c r="E198" t="s">
+        <v>10</v>
+      </c>
+      <c r="F198">
+        <v>4</v>
       </c>
       <c r="G198">
         <v>-1</v>
       </c>
       <c r="H198">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B199">
         <v>28</v>
@@ -5629,48 +5571,48 @@
       <c r="D199">
         <v>8</v>
       </c>
-      <c r="E199">
-        <v>4</v>
-      </c>
-      <c r="F199" t="s">
-        <v>6</v>
+      <c r="E199" t="s">
+        <v>10</v>
+      </c>
+      <c r="F199">
+        <v>3</v>
       </c>
       <c r="G199">
+        <v>0.8</v>
+      </c>
+      <c r="H199">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200">
+        <v>28</v>
+      </c>
+      <c r="C200">
+        <v>4</v>
+      </c>
+      <c r="D200">
+        <v>8</v>
+      </c>
+      <c r="E200" t="s">
+        <v>10</v>
+      </c>
+      <c r="F200">
+        <v>4</v>
+      </c>
+      <c r="G200">
         <v>-0.7</v>
       </c>
-      <c r="H199">
+      <c r="H200">
         <v>1.05</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>4</v>
-      </c>
-      <c r="B200">
-        <v>28</v>
-      </c>
-      <c r="C200">
-        <v>4</v>
-      </c>
-      <c r="D200">
-        <v>8</v>
-      </c>
-      <c r="E200">
-        <v>3</v>
-      </c>
-      <c r="F200" t="s">
-        <v>6</v>
-      </c>
-      <c r="G200">
-        <v>0.8</v>
-      </c>
-      <c r="H200">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B201">
         <v>28</v>
@@ -5681,11 +5623,11 @@
       <c r="D201">
         <v>9</v>
       </c>
-      <c r="E201">
-        <v>4</v>
-      </c>
-      <c r="F201" t="s">
-        <v>6</v>
+      <c r="E201" t="s">
+        <v>10</v>
+      </c>
+      <c r="F201">
+        <v>4</v>
       </c>
       <c r="G201">
         <v>-1</v>
@@ -5694,9 +5636,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B202">
         <v>28</v>
@@ -5707,11 +5649,11 @@
       <c r="D202">
         <v>10</v>
       </c>
-      <c r="E202">
-        <v>4</v>
-      </c>
-      <c r="F202" t="s">
-        <v>6</v>
+      <c r="E202" t="s">
+        <v>10</v>
+      </c>
+      <c r="F202">
+        <v>4</v>
       </c>
       <c r="G202">
         <v>-1.2375</v>
@@ -5720,9 +5662,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B203">
         <v>28</v>
@@ -5733,11 +5675,11 @@
       <c r="D203">
         <v>11</v>
       </c>
-      <c r="E203">
-        <v>3</v>
-      </c>
-      <c r="F203" t="s">
-        <v>6</v>
+      <c r="E203" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203">
+        <v>3</v>
       </c>
       <c r="G203">
         <v>0.7</v>
@@ -5746,9 +5688,9 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B204">
         <v>28</v>
@@ -5759,11 +5701,11 @@
       <c r="D204">
         <v>11</v>
       </c>
-      <c r="E204">
-        <v>4</v>
-      </c>
-      <c r="F204" t="s">
-        <v>6</v>
+      <c r="E204" t="s">
+        <v>10</v>
+      </c>
+      <c r="F204">
+        <v>4</v>
       </c>
       <c r="G204">
         <v>-0.85</v>
@@ -5772,9 +5714,9 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B205">
         <v>28</v>
@@ -5785,11 +5727,11 @@
       <c r="D205">
         <v>12</v>
       </c>
-      <c r="E205">
-        <v>4</v>
-      </c>
-      <c r="F205" t="s">
-        <v>5</v>
+      <c r="E205" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205">
+        <v>4</v>
       </c>
       <c r="G205">
         <v>-0.95</v>
@@ -5798,9 +5740,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B206">
         <v>28</v>
@@ -5811,11 +5753,11 @@
       <c r="D206">
         <v>12</v>
       </c>
-      <c r="E206">
-        <v>4</v>
-      </c>
-      <c r="F206" t="s">
-        <v>5</v>
+      <c r="E206" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206">
+        <v>4</v>
       </c>
       <c r="G206">
         <v>0.7</v>
@@ -5824,9 +5766,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B207">
         <v>28</v>
@@ -5837,22 +5779,22 @@
       <c r="D207">
         <v>13</v>
       </c>
-      <c r="E207">
-        <v>4</v>
-      </c>
-      <c r="F207" t="s">
-        <v>6</v>
+      <c r="E207" t="s">
+        <v>10</v>
+      </c>
+      <c r="F207">
+        <v>4</v>
       </c>
       <c r="G207">
-        <v>-0.77500000000000002</v>
+        <v>-0.775</v>
       </c>
       <c r="H207">
         <v>0.9</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B208">
         <v>28</v>
@@ -5863,11 +5805,11 @@
       <c r="D208">
         <v>14</v>
       </c>
-      <c r="E208">
-        <v>4</v>
-      </c>
-      <c r="F208" t="s">
-        <v>5</v>
+      <c r="E208" t="s">
+        <v>9</v>
+      </c>
+      <c r="F208">
+        <v>4</v>
       </c>
       <c r="G208">
         <v>-1.05</v>
@@ -5876,9 +5818,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B209">
         <v>28</v>
@@ -5889,11 +5831,11 @@
       <c r="D209">
         <v>14</v>
       </c>
-      <c r="E209">
-        <v>4</v>
-      </c>
-      <c r="F209" t="s">
-        <v>5</v>
+      <c r="E209" t="s">
+        <v>9</v>
+      </c>
+      <c r="F209">
+        <v>4</v>
       </c>
       <c r="G209">
         <v>1.2</v>
@@ -5902,9 +5844,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B210">
         <v>28</v>
@@ -5915,11 +5857,11 @@
       <c r="D210">
         <v>17</v>
       </c>
-      <c r="E210">
-        <v>4</v>
-      </c>
-      <c r="F210" t="s">
-        <v>6</v>
+      <c r="E210" t="s">
+        <v>10</v>
+      </c>
+      <c r="F210">
+        <v>4</v>
       </c>
       <c r="G210">
         <v>-1.2</v>
@@ -5928,9 +5870,9 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B211">
         <v>28</v>
@@ -5941,11 +5883,11 @@
       <c r="D211">
         <v>18</v>
       </c>
-      <c r="E211">
-        <v>3</v>
-      </c>
-      <c r="F211" t="s">
-        <v>6</v>
+      <c r="E211" t="s">
+        <v>10</v>
+      </c>
+      <c r="F211">
+        <v>3</v>
       </c>
       <c r="G211">
         <v>0.8</v>
@@ -5954,9 +5896,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B212">
         <v>28</v>
@@ -5967,22 +5909,22 @@
       <c r="D212">
         <v>18</v>
       </c>
-      <c r="E212">
-        <v>4</v>
-      </c>
-      <c r="F212" t="s">
-        <v>6</v>
+      <c r="E212" t="s">
+        <v>10</v>
+      </c>
+      <c r="F212">
+        <v>4</v>
       </c>
       <c r="G212">
         <v>-1.45</v>
       </c>
       <c r="H212">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B213">
         <v>28</v>
@@ -5993,11 +5935,11 @@
       <c r="D213">
         <v>19</v>
       </c>
-      <c r="E213">
-        <v>4</v>
-      </c>
-      <c r="F213" t="s">
-        <v>6</v>
+      <c r="E213" t="s">
+        <v>10</v>
+      </c>
+      <c r="F213">
+        <v>4</v>
       </c>
       <c r="G213">
         <v>-0.383333333</v>
@@ -6006,9 +5948,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B214">
         <v>28</v>
@@ -6019,11 +5961,11 @@
       <c r="D214">
         <v>1</v>
       </c>
-      <c r="E214">
-        <v>4</v>
-      </c>
-      <c r="F214" t="s">
-        <v>5</v>
+      <c r="E214" t="s">
+        <v>9</v>
+      </c>
+      <c r="F214">
+        <v>4</v>
       </c>
       <c r="G214">
         <v>-0.35</v>
@@ -6032,9 +5974,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B215">
         <v>28</v>
@@ -6045,11 +5987,11 @@
       <c r="D215">
         <v>1</v>
       </c>
-      <c r="E215">
-        <v>4</v>
-      </c>
-      <c r="F215" t="s">
-        <v>5</v>
+      <c r="E215" t="s">
+        <v>9</v>
+      </c>
+      <c r="F215">
+        <v>4</v>
       </c>
       <c r="G215">
         <v>0.8</v>
@@ -6058,9 +6000,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B216">
         <v>28</v>
@@ -6071,11 +6013,11 @@
       <c r="D216">
         <v>2</v>
       </c>
-      <c r="E216">
-        <v>4</v>
-      </c>
-      <c r="F216" t="s">
-        <v>6</v>
+      <c r="E216" t="s">
+        <v>10</v>
+      </c>
+      <c r="F216">
+        <v>4</v>
       </c>
       <c r="G216">
         <v>-0.4</v>
@@ -6084,9 +6026,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B217">
         <v>28</v>
@@ -6097,22 +6039,22 @@
       <c r="D217">
         <v>3</v>
       </c>
-      <c r="E217">
-        <v>4</v>
-      </c>
-      <c r="F217" t="s">
-        <v>6</v>
+      <c r="E217" t="s">
+        <v>10</v>
+      </c>
+      <c r="F217">
+        <v>4</v>
       </c>
       <c r="G217">
-        <v>-0.55000000000000004</v>
+        <v>-0.55</v>
       </c>
       <c r="H217">
         <v>0.8</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B218">
         <v>28</v>
@@ -6123,11 +6065,11 @@
       <c r="D218">
         <v>4</v>
       </c>
-      <c r="E218">
-        <v>4</v>
-      </c>
-      <c r="F218" t="s">
-        <v>6</v>
+      <c r="E218" t="s">
+        <v>10</v>
+      </c>
+      <c r="F218">
+        <v>4</v>
       </c>
       <c r="G218">
         <v>-0.75</v>
@@ -6136,9 +6078,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B219">
         <v>28</v>
@@ -6149,11 +6091,11 @@
       <c r="D219">
         <v>5</v>
       </c>
-      <c r="E219">
-        <v>4</v>
-      </c>
-      <c r="F219" t="s">
-        <v>6</v>
+      <c r="E219" t="s">
+        <v>10</v>
+      </c>
+      <c r="F219">
+        <v>4</v>
       </c>
       <c r="G219">
         <v>-0.6</v>
@@ -6162,9 +6104,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B220">
         <v>28</v>
@@ -6175,11 +6117,11 @@
       <c r="D220">
         <v>6</v>
       </c>
-      <c r="E220">
-        <v>4</v>
-      </c>
-      <c r="F220" t="s">
-        <v>6</v>
+      <c r="E220" t="s">
+        <v>10</v>
+      </c>
+      <c r="F220">
+        <v>4</v>
       </c>
       <c r="G220">
         <v>-0.65</v>
@@ -6188,9 +6130,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B221">
         <v>28</v>
@@ -6201,22 +6143,22 @@
       <c r="D221">
         <v>7</v>
       </c>
-      <c r="E221">
-        <v>4</v>
-      </c>
-      <c r="F221" t="s">
-        <v>5</v>
+      <c r="E221" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221">
+        <v>4</v>
       </c>
       <c r="G221">
-        <v>-0.57499999999999996</v>
+        <v>-0.575</v>
       </c>
       <c r="H221">
         <v>1.05</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B222">
         <v>28</v>
@@ -6227,22 +6169,22 @@
       <c r="D222">
         <v>7</v>
       </c>
-      <c r="E222">
-        <v>4</v>
-      </c>
-      <c r="F222" t="s">
-        <v>5</v>
+      <c r="E222" t="s">
+        <v>9</v>
+      </c>
+      <c r="F222">
+        <v>4</v>
       </c>
       <c r="G222">
-        <v>0.82499999999999996</v>
+        <v>0.825</v>
       </c>
       <c r="H222">
         <v>0.9</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B223">
         <v>28</v>
@@ -6253,11 +6195,11 @@
       <c r="D223">
         <v>8</v>
       </c>
-      <c r="E223">
-        <v>4</v>
-      </c>
-      <c r="F223" t="s">
-        <v>6</v>
+      <c r="E223" t="s">
+        <v>10</v>
+      </c>
+      <c r="F223">
+        <v>4</v>
       </c>
       <c r="G223">
         <v>-0.4</v>
@@ -6266,9 +6208,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B224">
         <v>28</v>
@@ -6279,22 +6221,22 @@
       <c r="D224">
         <v>9</v>
       </c>
-      <c r="E224">
-        <v>4</v>
-      </c>
-      <c r="F224" t="s">
-        <v>6</v>
+      <c r="E224" t="s">
+        <v>10</v>
+      </c>
+      <c r="F224">
+        <v>4</v>
       </c>
       <c r="G224">
         <v>-0.6</v>
       </c>
       <c r="H224">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B225">
         <v>28</v>
@@ -6305,22 +6247,22 @@
       <c r="D225">
         <v>10</v>
       </c>
-      <c r="E225">
-        <v>4</v>
-      </c>
-      <c r="F225" t="s">
-        <v>5</v>
+      <c r="E225" t="s">
+        <v>9</v>
+      </c>
+      <c r="F225">
+        <v>4</v>
       </c>
       <c r="G225">
-        <v>-0.52500000000000002</v>
+        <v>-0.525</v>
       </c>
       <c r="H225">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B226">
         <v>28</v>
@@ -6331,22 +6273,22 @@
       <c r="D226">
         <v>10</v>
       </c>
-      <c r="E226">
-        <v>4</v>
-      </c>
-      <c r="F226" t="s">
-        <v>5</v>
+      <c r="E226" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226">
+        <v>4</v>
       </c>
       <c r="G226">
-        <v>0.57499999999999996</v>
+        <v>0.575</v>
       </c>
       <c r="H226">
         <v>1.05</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B227">
         <v>28</v>
@@ -6357,11 +6299,11 @@
       <c r="D227">
         <v>11</v>
       </c>
-      <c r="E227">
-        <v>4</v>
-      </c>
-      <c r="F227" t="s">
-        <v>5</v>
+      <c r="E227" t="s">
+        <v>9</v>
+      </c>
+      <c r="F227">
+        <v>4</v>
       </c>
       <c r="G227">
         <v>-0.3</v>
@@ -6370,9 +6312,9 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B228">
         <v>28</v>
@@ -6383,22 +6325,22 @@
       <c r="D228">
         <v>11</v>
       </c>
-      <c r="E228">
-        <v>4</v>
-      </c>
-      <c r="F228" t="s">
-        <v>5</v>
+      <c r="E228" t="s">
+        <v>9</v>
+      </c>
+      <c r="F228">
+        <v>4</v>
       </c>
       <c r="G228">
         <v>0.6</v>
       </c>
       <c r="H228">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B229">
         <v>28</v>
@@ -6409,11 +6351,11 @@
       <c r="D229">
         <v>12</v>
       </c>
-      <c r="E229">
-        <v>4</v>
-      </c>
-      <c r="F229" t="s">
-        <v>6</v>
+      <c r="E229" t="s">
+        <v>10</v>
+      </c>
+      <c r="F229">
+        <v>4</v>
       </c>
       <c r="G229">
         <v>-0.9</v>
@@ -6422,9 +6364,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B230">
         <v>28</v>
@@ -6435,11 +6377,11 @@
       <c r="D230">
         <v>13</v>
       </c>
-      <c r="E230">
-        <v>4</v>
-      </c>
-      <c r="F230" t="s">
-        <v>6</v>
+      <c r="E230" t="s">
+        <v>10</v>
+      </c>
+      <c r="F230">
+        <v>4</v>
       </c>
       <c r="G230">
         <v>-0.375</v>
@@ -6448,9 +6390,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B231">
         <v>28</v>
@@ -6461,11 +6403,11 @@
       <c r="D231">
         <v>14</v>
       </c>
-      <c r="E231">
-        <v>3</v>
-      </c>
-      <c r="F231" t="s">
-        <v>6</v>
+      <c r="E231" t="s">
+        <v>10</v>
+      </c>
+      <c r="F231">
+        <v>3</v>
       </c>
       <c r="G231">
         <v>0.6</v>
@@ -6474,9 +6416,9 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B232">
         <v>28</v>
@@ -6487,11 +6429,11 @@
       <c r="D232">
         <v>14</v>
       </c>
-      <c r="E232">
-        <v>4</v>
-      </c>
-      <c r="F232" t="s">
-        <v>6</v>
+      <c r="E232" t="s">
+        <v>10</v>
+      </c>
+      <c r="F232">
+        <v>4</v>
       </c>
       <c r="G232">
         <v>-0.85</v>
@@ -6500,9 +6442,9 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B233">
         <v>28</v>
@@ -6513,22 +6455,22 @@
       <c r="D233">
         <v>15</v>
       </c>
-      <c r="E233">
-        <v>4</v>
-      </c>
-      <c r="F233" t="s">
-        <v>6</v>
+      <c r="E233" t="s">
+        <v>10</v>
+      </c>
+      <c r="F233">
+        <v>4</v>
       </c>
       <c r="G233">
-        <v>-0.47499999999999998</v>
+        <v>-0.475</v>
       </c>
       <c r="H233">
         <v>0.7</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B234">
         <v>28</v>
@@ -6539,11 +6481,11 @@
       <c r="D234">
         <v>16</v>
       </c>
-      <c r="E234">
-        <v>3</v>
-      </c>
-      <c r="F234" t="s">
-        <v>6</v>
+      <c r="E234" t="s">
+        <v>10</v>
+      </c>
+      <c r="F234">
+        <v>3</v>
       </c>
       <c r="G234">
         <v>0.6</v>
@@ -6552,9 +6494,9 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B235">
         <v>28</v>
@@ -6565,11 +6507,11 @@
       <c r="D235">
         <v>16</v>
       </c>
-      <c r="E235">
-        <v>4</v>
-      </c>
-      <c r="F235" t="s">
-        <v>6</v>
+      <c r="E235" t="s">
+        <v>10</v>
+      </c>
+      <c r="F235">
+        <v>4</v>
       </c>
       <c r="G235">
         <v>-0.85</v>
@@ -6578,9 +6520,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B236">
         <v>28</v>
@@ -6591,22 +6533,22 @@
       <c r="D236">
         <v>17</v>
       </c>
-      <c r="E236">
-        <v>4</v>
-      </c>
-      <c r="F236" t="s">
-        <v>6</v>
+      <c r="E236" t="s">
+        <v>10</v>
+      </c>
+      <c r="F236">
+        <v>4</v>
       </c>
       <c r="G236">
-        <v>-0.55000000000000004</v>
+        <v>-0.55</v>
       </c>
       <c r="H236">
         <v>0.9</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B237">
         <v>28</v>
@@ -6617,11 +6559,11 @@
       <c r="D237">
         <v>18</v>
       </c>
-      <c r="E237">
-        <v>4</v>
-      </c>
-      <c r="F237" t="s">
-        <v>6</v>
+      <c r="E237" t="s">
+        <v>10</v>
+      </c>
+      <c r="F237">
+        <v>4</v>
       </c>
       <c r="G237">
         <v>-0.133333333</v>
@@ -6630,9 +6572,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B238">
         <v>28</v>
@@ -6643,22 +6585,22 @@
       <c r="D238">
         <v>19</v>
       </c>
-      <c r="E238">
-        <v>4</v>
-      </c>
-      <c r="F238" t="s">
-        <v>6</v>
+      <c r="E238" t="s">
+        <v>10</v>
+      </c>
+      <c r="F238">
+        <v>4</v>
       </c>
       <c r="G238">
-        <v>-1.4750000000000001</v>
+        <v>-1.475</v>
       </c>
       <c r="H238">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B239">
         <v>28</v>
@@ -6669,22 +6611,22 @@
       <c r="D239">
         <v>20</v>
       </c>
-      <c r="E239">
-        <v>4</v>
-      </c>
-      <c r="F239" t="s">
-        <v>6</v>
+      <c r="E239" t="s">
+        <v>10</v>
+      </c>
+      <c r="F239">
+        <v>3</v>
       </c>
       <c r="G239">
-        <v>-0.75</v>
+        <v>0.775</v>
       </c>
       <c r="H239">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B240">
         <v>28</v>
@@ -6695,22 +6637,22 @@
       <c r="D240">
         <v>20</v>
       </c>
-      <c r="E240">
-        <v>3</v>
-      </c>
-      <c r="F240" t="s">
-        <v>6</v>
+      <c r="E240" t="s">
+        <v>10</v>
+      </c>
+      <c r="F240">
+        <v>4</v>
       </c>
       <c r="G240">
-        <v>0.77500000000000002</v>
+        <v>-0.75</v>
       </c>
       <c r="H240">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B241">
         <v>28</v>
@@ -6721,11 +6663,11 @@
       <c r="D241">
         <v>21</v>
       </c>
-      <c r="E241">
-        <v>4</v>
-      </c>
-      <c r="F241" t="s">
-        <v>6</v>
+      <c r="E241" t="s">
+        <v>10</v>
+      </c>
+      <c r="F241">
+        <v>4</v>
       </c>
       <c r="G241">
         <v>-1.675</v>
@@ -6734,9 +6676,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B242">
         <v>28</v>
@@ -6747,22 +6689,22 @@
       <c r="D242">
         <v>25</v>
       </c>
-      <c r="E242">
-        <v>4</v>
-      </c>
-      <c r="F242" t="s">
-        <v>6</v>
+      <c r="E242" t="s">
+        <v>10</v>
+      </c>
+      <c r="F242">
+        <v>3</v>
       </c>
       <c r="G242">
-        <v>-0.32500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B243">
         <v>28</v>
@@ -6773,22 +6715,22 @@
       <c r="D243">
         <v>25</v>
       </c>
-      <c r="E243">
-        <v>3</v>
-      </c>
-      <c r="F243" t="s">
-        <v>6</v>
+      <c r="E243" t="s">
+        <v>10</v>
+      </c>
+      <c r="F243">
+        <v>4</v>
       </c>
       <c r="G243">
-        <v>0.5</v>
+        <v>-0.325</v>
       </c>
       <c r="H243">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B244">
         <v>28</v>
@@ -6799,22 +6741,22 @@
       <c r="D244">
         <v>38</v>
       </c>
-      <c r="E244">
-        <v>4</v>
-      </c>
-      <c r="F244" t="s">
-        <v>6</v>
+      <c r="E244" t="s">
+        <v>10</v>
+      </c>
+      <c r="F244">
+        <v>3</v>
       </c>
       <c r="G244">
-        <v>-0.75</v>
+        <v>1.05</v>
       </c>
       <c r="H244">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B245">
         <v>28</v>
@@ -6825,22 +6767,22 @@
       <c r="D245">
         <v>38</v>
       </c>
-      <c r="E245">
-        <v>3</v>
-      </c>
-      <c r="F245" t="s">
-        <v>6</v>
+      <c r="E245" t="s">
+        <v>10</v>
+      </c>
+      <c r="F245">
+        <v>4</v>
       </c>
       <c r="G245">
-        <v>1.05</v>
+        <v>-0.75</v>
       </c>
       <c r="H245">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B246">
         <v>28</v>
@@ -6851,11 +6793,11 @@
       <c r="D246">
         <v>40</v>
       </c>
-      <c r="E246">
-        <v>4</v>
-      </c>
-      <c r="F246" t="s">
-        <v>5</v>
+      <c r="E246" t="s">
+        <v>9</v>
+      </c>
+      <c r="F246">
+        <v>4</v>
       </c>
       <c r="G246">
         <v>-0.8</v>
@@ -6864,9 +6806,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B247">
         <v>28</v>
@@ -6877,22 +6819,22 @@
       <c r="D247">
         <v>40</v>
       </c>
-      <c r="E247">
-        <v>4</v>
-      </c>
-      <c r="F247" t="s">
-        <v>5</v>
+      <c r="E247" t="s">
+        <v>9</v>
+      </c>
+      <c r="F247">
+        <v>4</v>
       </c>
       <c r="G247">
         <v>0.25</v>
       </c>
       <c r="H247">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B248">
         <v>28</v>
@@ -6903,11 +6845,11 @@
       <c r="D248">
         <v>42</v>
       </c>
-      <c r="E248">
-        <v>4</v>
-      </c>
-      <c r="F248" t="s">
-        <v>6</v>
+      <c r="E248" t="s">
+        <v>10</v>
+      </c>
+      <c r="F248">
+        <v>4</v>
       </c>
       <c r="G248">
         <v>-0.45</v>
@@ -6916,9 +6858,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B249">
         <v>28</v>
@@ -6929,22 +6871,22 @@
       <c r="D249">
         <v>52</v>
       </c>
-      <c r="E249">
-        <v>3</v>
-      </c>
-      <c r="F249" t="s">
-        <v>6</v>
+      <c r="E249" t="s">
+        <v>10</v>
+      </c>
+      <c r="F249">
+        <v>3</v>
       </c>
       <c r="G249">
-        <v>0.67500000000000004</v>
+        <v>0.675</v>
       </c>
       <c r="H249">
         <v>1.7</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B250">
         <v>28</v>
@@ -6955,22 +6897,22 @@
       <c r="D250">
         <v>52</v>
       </c>
-      <c r="E250">
-        <v>4</v>
-      </c>
-      <c r="F250" t="s">
-        <v>6</v>
+      <c r="E250" t="s">
+        <v>10</v>
+      </c>
+      <c r="F250">
+        <v>4</v>
       </c>
       <c r="G250">
         <v>-1.2</v>
       </c>
       <c r="H250">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B251">
         <v>28</v>
@@ -6981,22 +6923,22 @@
       <c r="D251">
         <v>55</v>
       </c>
-      <c r="E251">
-        <v>4</v>
-      </c>
-      <c r="F251" t="s">
-        <v>6</v>
+      <c r="E251" t="s">
+        <v>10</v>
+      </c>
+      <c r="F251">
+        <v>4</v>
       </c>
       <c r="G251">
-        <v>-1.5375000000000001</v>
+        <v>-1.5375</v>
       </c>
       <c r="H251">
         <v>0.85</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B252">
         <v>28</v>
@@ -7007,11 +6949,11 @@
       <c r="D252">
         <v>108</v>
       </c>
-      <c r="E252">
-        <v>4</v>
-      </c>
-      <c r="F252" t="s">
-        <v>6</v>
+      <c r="E252" t="s">
+        <v>10</v>
+      </c>
+      <c r="F252">
+        <v>4</v>
       </c>
       <c r="G252">
         <v>-0.6</v>
@@ -7020,9 +6962,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B253">
         <v>28</v>
@@ -7033,11 +6975,11 @@
       <c r="D253">
         <v>1</v>
       </c>
-      <c r="E253">
-        <v>4</v>
-      </c>
-      <c r="F253" t="s">
-        <v>5</v>
+      <c r="E253" t="s">
+        <v>9</v>
+      </c>
+      <c r="F253">
+        <v>4</v>
       </c>
       <c r="G253">
         <v>-0.5</v>
@@ -7046,9 +6988,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B254">
         <v>28</v>
@@ -7059,22 +7001,22 @@
       <c r="D254">
         <v>1</v>
       </c>
-      <c r="E254">
-        <v>4</v>
-      </c>
-      <c r="F254" t="s">
-        <v>5</v>
+      <c r="E254" t="s">
+        <v>9</v>
+      </c>
+      <c r="F254">
+        <v>4</v>
       </c>
       <c r="G254">
-        <v>0.82499999999999996</v>
+        <v>0.825</v>
       </c>
       <c r="H254">
         <v>1.2</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B255">
         <v>28</v>
@@ -7085,11 +7027,11 @@
       <c r="D255">
         <v>2</v>
       </c>
-      <c r="E255">
-        <v>4</v>
-      </c>
-      <c r="F255" t="s">
-        <v>6</v>
+      <c r="E255" t="s">
+        <v>10</v>
+      </c>
+      <c r="F255">
+        <v>4</v>
       </c>
       <c r="G255">
         <v>-0.15</v>
@@ -7098,9 +7040,9 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B256">
         <v>28</v>
@@ -7111,22 +7053,22 @@
       <c r="D256">
         <v>3</v>
       </c>
-      <c r="E256">
-        <v>4</v>
-      </c>
-      <c r="F256" t="s">
-        <v>6</v>
+      <c r="E256" t="s">
+        <v>10</v>
+      </c>
+      <c r="F256">
+        <v>4</v>
       </c>
       <c r="G256">
-        <v>-0.55000000000000004</v>
+        <v>-0.55</v>
       </c>
       <c r="H256">
         <v>0.85</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B257">
         <v>28</v>
@@ -7137,22 +7079,22 @@
       <c r="D257">
         <v>4</v>
       </c>
-      <c r="E257">
-        <v>4</v>
-      </c>
-      <c r="F257" t="s">
-        <v>6</v>
+      <c r="E257" t="s">
+        <v>10</v>
+      </c>
+      <c r="F257">
+        <v>4</v>
       </c>
       <c r="G257">
-        <v>-0.33750000000000002</v>
+        <v>-0.3375</v>
       </c>
       <c r="H257">
         <v>0.75</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B258">
         <v>28</v>
@@ -7163,22 +7105,22 @@
       <c r="D258">
         <v>5</v>
       </c>
-      <c r="E258">
-        <v>4</v>
-      </c>
-      <c r="F258" t="s">
-        <v>6</v>
+      <c r="E258" t="s">
+        <v>10</v>
+      </c>
+      <c r="F258">
+        <v>3</v>
       </c>
       <c r="G258">
-        <v>-0.7</v>
+        <v>0.7</v>
       </c>
       <c r="H258">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B259">
         <v>28</v>
@@ -7189,22 +7131,22 @@
       <c r="D259">
         <v>5</v>
       </c>
-      <c r="E259">
-        <v>3</v>
-      </c>
-      <c r="F259" t="s">
-        <v>6</v>
+      <c r="E259" t="s">
+        <v>10</v>
+      </c>
+      <c r="F259">
+        <v>4</v>
       </c>
       <c r="G259">
-        <v>0.7</v>
+        <v>-0.7</v>
       </c>
       <c r="H259">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B260">
         <v>28</v>
@@ -7215,11 +7157,11 @@
       <c r="D260">
         <v>6</v>
       </c>
-      <c r="E260">
-        <v>4</v>
-      </c>
-      <c r="F260" t="s">
-        <v>6</v>
+      <c r="E260" t="s">
+        <v>10</v>
+      </c>
+      <c r="F260">
+        <v>4</v>
       </c>
       <c r="G260">
         <v>-0.3</v>
@@ -7228,9 +7170,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B261">
         <v>28</v>
@@ -7241,22 +7183,22 @@
       <c r="D261">
         <v>7</v>
       </c>
-      <c r="E261">
-        <v>4</v>
-      </c>
-      <c r="F261" t="s">
-        <v>6</v>
+      <c r="E261" t="s">
+        <v>10</v>
+      </c>
+      <c r="F261">
+        <v>4</v>
       </c>
       <c r="G261">
-        <v>-0.27500000000000002</v>
+        <v>-0.275</v>
       </c>
       <c r="H261">
         <v>0.95</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B262">
         <v>28</v>
@@ -7267,22 +7209,22 @@
       <c r="D262">
         <v>8</v>
       </c>
-      <c r="E262">
-        <v>4</v>
-      </c>
-      <c r="F262" t="s">
-        <v>6</v>
+      <c r="E262" t="s">
+        <v>10</v>
+      </c>
+      <c r="F262">
+        <v>3</v>
       </c>
       <c r="G262">
-        <v>-0.66249999999999998</v>
+        <v>0.95</v>
       </c>
       <c r="H262">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B263">
         <v>28</v>
@@ -7293,22 +7235,22 @@
       <c r="D263">
         <v>8</v>
       </c>
-      <c r="E263">
-        <v>3</v>
-      </c>
-      <c r="F263" t="s">
-        <v>6</v>
+      <c r="E263" t="s">
+        <v>10</v>
+      </c>
+      <c r="F263">
+        <v>4</v>
       </c>
       <c r="G263">
-        <v>0.95</v>
+        <v>-0.6625</v>
       </c>
       <c r="H263">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B264">
         <v>28</v>
@@ -7319,22 +7261,22 @@
       <c r="D264">
         <v>10</v>
       </c>
-      <c r="E264">
-        <v>4</v>
-      </c>
-      <c r="F264" t="s">
-        <v>6</v>
+      <c r="E264" t="s">
+        <v>10</v>
+      </c>
+      <c r="F264">
+        <v>3</v>
       </c>
       <c r="G264">
-        <v>-0.15</v>
+        <v>0.95</v>
       </c>
       <c r="H264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B265">
         <v>28</v>
@@ -7345,22 +7287,22 @@
       <c r="D265">
         <v>10</v>
       </c>
-      <c r="E265">
-        <v>3</v>
-      </c>
-      <c r="F265" t="s">
-        <v>6</v>
+      <c r="E265" t="s">
+        <v>10</v>
+      </c>
+      <c r="F265">
+        <v>4</v>
       </c>
       <c r="G265">
-        <v>0.95</v>
+        <v>-0.15</v>
       </c>
       <c r="H265">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B266">
         <v>28</v>
@@ -7371,22 +7313,22 @@
       <c r="D266">
         <v>12</v>
       </c>
-      <c r="E266">
-        <v>4</v>
-      </c>
-      <c r="F266" t="s">
-        <v>5</v>
+      <c r="E266" t="s">
+        <v>9</v>
+      </c>
+      <c r="F266">
+        <v>4</v>
       </c>
       <c r="G266">
-        <v>-0.52500000000000002</v>
+        <v>-0.525</v>
       </c>
       <c r="H266">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B267">
         <v>28</v>
@@ -7397,11 +7339,11 @@
       <c r="D267">
         <v>12</v>
       </c>
-      <c r="E267">
-        <v>4</v>
-      </c>
-      <c r="F267" t="s">
-        <v>5</v>
+      <c r="E267" t="s">
+        <v>9</v>
+      </c>
+      <c r="F267">
+        <v>4</v>
       </c>
       <c r="G267">
         <v>1.1375</v>
@@ -7410,9 +7352,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B268">
         <v>28</v>
@@ -7423,11 +7365,11 @@
       <c r="D268">
         <v>13</v>
       </c>
-      <c r="E268">
-        <v>4</v>
-      </c>
-      <c r="F268" t="s">
-        <v>6</v>
+      <c r="E268" t="s">
+        <v>10</v>
+      </c>
+      <c r="F268">
+        <v>4</v>
       </c>
       <c r="G268">
         <v>-0.2</v>
@@ -7436,9 +7378,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B269">
         <v>28</v>
@@ -7449,22 +7391,22 @@
       <c r="D269">
         <v>14</v>
       </c>
-      <c r="E269">
-        <v>4</v>
-      </c>
-      <c r="F269" t="s">
-        <v>6</v>
+      <c r="E269" t="s">
+        <v>10</v>
+      </c>
+      <c r="F269">
+        <v>4</v>
       </c>
       <c r="G269">
         <v>-0.625</v>
       </c>
       <c r="H269">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B270">
         <v>28</v>
@@ -7475,22 +7417,22 @@
       <c r="D270">
         <v>15</v>
       </c>
-      <c r="E270">
-        <v>4</v>
-      </c>
-      <c r="F270" t="s">
-        <v>6</v>
+      <c r="E270" t="s">
+        <v>10</v>
+      </c>
+      <c r="F270">
+        <v>3</v>
       </c>
       <c r="G270">
-        <v>-0.42499999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H270">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B271">
         <v>28</v>
@@ -7501,22 +7443,22 @@
       <c r="D271">
         <v>15</v>
       </c>
-      <c r="E271">
-        <v>3</v>
-      </c>
-      <c r="F271" t="s">
-        <v>6</v>
+      <c r="E271" t="s">
+        <v>10</v>
+      </c>
+      <c r="F271">
+        <v>4</v>
       </c>
       <c r="G271">
-        <v>0.6</v>
+        <v>-0.425</v>
       </c>
       <c r="H271">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B272">
         <v>28</v>
@@ -7527,22 +7469,22 @@
       <c r="D272">
         <v>16</v>
       </c>
-      <c r="E272">
-        <v>4</v>
-      </c>
-      <c r="F272" t="s">
-        <v>6</v>
+      <c r="E272" t="s">
+        <v>10</v>
+      </c>
+      <c r="F272">
+        <v>3</v>
       </c>
       <c r="G272">
-        <v>-0.35</v>
+        <v>0.8</v>
       </c>
       <c r="H272">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B273">
         <v>28</v>
@@ -7553,22 +7495,22 @@
       <c r="D273">
         <v>16</v>
       </c>
-      <c r="E273">
-        <v>3</v>
-      </c>
-      <c r="F273" t="s">
-        <v>6</v>
+      <c r="E273" t="s">
+        <v>10</v>
+      </c>
+      <c r="F273">
+        <v>4</v>
       </c>
       <c r="G273">
-        <v>0.8</v>
+        <v>-0.35</v>
       </c>
       <c r="H273">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B274">
         <v>28</v>
@@ -7579,22 +7521,22 @@
       <c r="D274">
         <v>17</v>
       </c>
-      <c r="E274">
-        <v>4</v>
-      </c>
-      <c r="F274" t="s">
-        <v>6</v>
+      <c r="E274" t="s">
+        <v>10</v>
+      </c>
+      <c r="F274">
+        <v>3</v>
       </c>
       <c r="G274">
-        <v>-0.1</v>
+        <v>0.9</v>
       </c>
       <c r="H274">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B275">
         <v>28</v>
@@ -7605,22 +7547,22 @@
       <c r="D275">
         <v>17</v>
       </c>
-      <c r="E275">
-        <v>3</v>
-      </c>
-      <c r="F275" t="s">
-        <v>6</v>
+      <c r="E275" t="s">
+        <v>10</v>
+      </c>
+      <c r="F275">
+        <v>4</v>
       </c>
       <c r="G275">
-        <v>0.9</v>
+        <v>-0.1</v>
       </c>
       <c r="H275">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B276">
         <v>28</v>
@@ -7631,22 +7573,22 @@
       <c r="D276">
         <v>18</v>
       </c>
-      <c r="E276">
-        <v>4</v>
-      </c>
-      <c r="F276" t="s">
-        <v>6</v>
+      <c r="E276" t="s">
+        <v>10</v>
+      </c>
+      <c r="F276">
+        <v>4</v>
       </c>
       <c r="G276">
         <v>-0.45</v>
       </c>
       <c r="H276">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B277">
         <v>28</v>
@@ -7657,11 +7599,11 @@
       <c r="D277">
         <v>19</v>
       </c>
-      <c r="E277">
-        <v>4</v>
-      </c>
-      <c r="F277" t="s">
-        <v>5</v>
+      <c r="E277" t="s">
+        <v>9</v>
+      </c>
+      <c r="F277">
+        <v>4</v>
       </c>
       <c r="G277">
         <v>-0.75</v>
@@ -7670,9 +7612,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B278">
         <v>28</v>
@@ -7683,11 +7625,11 @@
       <c r="D278">
         <v>19</v>
       </c>
-      <c r="E278">
-        <v>4</v>
-      </c>
-      <c r="F278" t="s">
-        <v>5</v>
+      <c r="E278" t="s">
+        <v>9</v>
+      </c>
+      <c r="F278">
+        <v>4</v>
       </c>
       <c r="G278">
         <v>0.6</v>
@@ -7696,9 +7638,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B279">
         <v>28</v>
@@ -7709,22 +7651,22 @@
       <c r="D279">
         <v>20</v>
       </c>
-      <c r="E279">
-        <v>4</v>
-      </c>
-      <c r="F279" t="s">
-        <v>6</v>
+      <c r="E279" t="s">
+        <v>10</v>
+      </c>
+      <c r="F279">
+        <v>3</v>
       </c>
       <c r="G279">
-        <v>-0.25</v>
+        <v>0.8</v>
       </c>
       <c r="H279">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B280">
         <v>28</v>
@@ -7735,22 +7677,22 @@
       <c r="D280">
         <v>20</v>
       </c>
-      <c r="E280">
-        <v>3</v>
-      </c>
-      <c r="F280" t="s">
-        <v>6</v>
+      <c r="E280" t="s">
+        <v>10</v>
+      </c>
+      <c r="F280">
+        <v>4</v>
       </c>
       <c r="G280">
-        <v>0.8</v>
+        <v>-0.25</v>
       </c>
       <c r="H280">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B281">
         <v>28</v>
@@ -7761,11 +7703,11 @@
       <c r="D281">
         <v>21</v>
       </c>
-      <c r="E281">
-        <v>4</v>
-      </c>
-      <c r="F281" t="s">
-        <v>6</v>
+      <c r="E281" t="s">
+        <v>10</v>
+      </c>
+      <c r="F281">
+        <v>4</v>
       </c>
       <c r="G281">
         <v>-0.3</v>
@@ -7774,9 +7716,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B282">
         <v>28</v>
@@ -7787,11 +7729,11 @@
       <c r="D282">
         <v>22</v>
       </c>
-      <c r="E282">
-        <v>4</v>
-      </c>
-      <c r="F282" t="s">
-        <v>5</v>
+      <c r="E282" t="s">
+        <v>9</v>
+      </c>
+      <c r="F282">
+        <v>4</v>
       </c>
       <c r="G282">
         <v>-0.7</v>
@@ -7800,9 +7742,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B283">
         <v>28</v>
@@ -7813,22 +7755,22 @@
       <c r="D283">
         <v>22</v>
       </c>
-      <c r="E283">
-        <v>4</v>
-      </c>
-      <c r="F283" t="s">
-        <v>5</v>
+      <c r="E283" t="s">
+        <v>9</v>
+      </c>
+      <c r="F283">
+        <v>4</v>
       </c>
       <c r="G283">
-        <v>0.92500000000000004</v>
+        <v>0.925</v>
       </c>
       <c r="H283">
         <v>0.9</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B284">
         <v>28</v>
@@ -7839,22 +7781,22 @@
       <c r="D284">
         <v>23</v>
       </c>
-      <c r="E284">
-        <v>4</v>
-      </c>
-      <c r="F284" t="s">
-        <v>6</v>
+      <c r="E284" t="s">
+        <v>10</v>
+      </c>
+      <c r="F284">
+        <v>3</v>
       </c>
       <c r="G284">
-        <v>-0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B285">
         <v>28</v>
@@ -7865,22 +7807,22 @@
       <c r="D285">
         <v>23</v>
       </c>
-      <c r="E285">
-        <v>3</v>
-      </c>
-      <c r="F285" t="s">
-        <v>6</v>
+      <c r="E285" t="s">
+        <v>10</v>
+      </c>
+      <c r="F285">
+        <v>4</v>
       </c>
       <c r="G285">
-        <v>0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="H285">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B286">
         <v>28</v>
@@ -7891,22 +7833,22 @@
       <c r="D286">
         <v>24</v>
       </c>
-      <c r="E286">
-        <v>4</v>
-      </c>
-      <c r="F286" t="s">
-        <v>6</v>
+      <c r="E286" t="s">
+        <v>10</v>
+      </c>
+      <c r="F286">
+        <v>4</v>
       </c>
       <c r="G286">
-        <v>-0.42499999999999999</v>
+        <v>-0.425</v>
       </c>
       <c r="H286">
         <v>0.85</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B287">
         <v>28</v>
@@ -7917,22 +7859,22 @@
       <c r="D287">
         <v>25</v>
       </c>
-      <c r="E287">
-        <v>4</v>
-      </c>
-      <c r="F287" t="s">
-        <v>5</v>
+      <c r="E287" t="s">
+        <v>9</v>
+      </c>
+      <c r="F287">
+        <v>4</v>
       </c>
       <c r="G287">
-        <v>-0.21249999999999999</v>
+        <v>-0.2125</v>
       </c>
       <c r="H287">
         <v>0.85</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B288">
         <v>28</v>
@@ -7943,11 +7885,11 @@
       <c r="D288">
         <v>25</v>
       </c>
-      <c r="E288">
-        <v>4</v>
-      </c>
-      <c r="F288" t="s">
-        <v>5</v>
+      <c r="E288" t="s">
+        <v>9</v>
+      </c>
+      <c r="F288">
+        <v>4</v>
       </c>
       <c r="G288">
         <v>1</v>
@@ -7956,9 +7898,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B289">
         <v>28</v>
@@ -7969,22 +7911,22 @@
       <c r="D289">
         <v>26</v>
       </c>
-      <c r="E289">
-        <v>4</v>
-      </c>
-      <c r="F289" t="s">
-        <v>6</v>
+      <c r="E289" t="s">
+        <v>10</v>
+      </c>
+      <c r="F289">
+        <v>3</v>
       </c>
       <c r="G289">
-        <v>-1.0249999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H289">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B290">
         <v>28</v>
@@ -7995,22 +7937,22 @@
       <c r="D290">
         <v>26</v>
       </c>
-      <c r="E290">
-        <v>3</v>
-      </c>
-      <c r="F290" t="s">
-        <v>6</v>
+      <c r="E290" t="s">
+        <v>10</v>
+      </c>
+      <c r="F290">
+        <v>4</v>
       </c>
       <c r="G290">
-        <v>0.6</v>
+        <v>-1.025</v>
       </c>
       <c r="H290">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B291">
         <v>28</v>
@@ -8021,11 +7963,11 @@
       <c r="D291">
         <v>27</v>
       </c>
-      <c r="E291">
-        <v>4</v>
-      </c>
-      <c r="F291" t="s">
-        <v>5</v>
+      <c r="E291" t="s">
+        <v>9</v>
+      </c>
+      <c r="F291">
+        <v>4</v>
       </c>
       <c r="G291">
         <v>-1.1875</v>
@@ -8034,9 +7976,9 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B292">
         <v>28</v>
@@ -8047,22 +7989,22 @@
       <c r="D292">
         <v>27</v>
       </c>
-      <c r="E292">
-        <v>4</v>
-      </c>
-      <c r="F292" t="s">
-        <v>5</v>
+      <c r="E292" t="s">
+        <v>9</v>
+      </c>
+      <c r="F292">
+        <v>4</v>
       </c>
       <c r="G292">
-        <v>0.52500000000000002</v>
+        <v>0.525</v>
       </c>
       <c r="H292">
         <v>0.85</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B293">
         <v>28</v>
@@ -8073,22 +8015,22 @@
       <c r="D293">
         <v>28</v>
       </c>
-      <c r="E293">
-        <v>4</v>
-      </c>
-      <c r="F293" t="s">
-        <v>6</v>
+      <c r="E293" t="s">
+        <v>10</v>
+      </c>
+      <c r="F293">
+        <v>3</v>
       </c>
       <c r="G293">
-        <v>-0.4</v>
+        <v>1.05</v>
       </c>
       <c r="H293">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B294">
         <v>28</v>
@@ -8099,22 +8041,22 @@
       <c r="D294">
         <v>28</v>
       </c>
-      <c r="E294">
-        <v>3</v>
-      </c>
-      <c r="F294" t="s">
-        <v>6</v>
+      <c r="E294" t="s">
+        <v>10</v>
+      </c>
+      <c r="F294">
+        <v>4</v>
       </c>
       <c r="G294">
-        <v>1.05</v>
+        <v>-0.4</v>
       </c>
       <c r="H294">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B295">
         <v>28</v>
@@ -8125,22 +8067,22 @@
       <c r="D295">
         <v>29</v>
       </c>
-      <c r="E295">
-        <v>4</v>
-      </c>
-      <c r="F295" t="s">
-        <v>6</v>
+      <c r="E295" t="s">
+        <v>10</v>
+      </c>
+      <c r="F295">
+        <v>3</v>
       </c>
       <c r="G295">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H295">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B296">
         <v>28</v>
@@ -8151,22 +8093,22 @@
       <c r="D296">
         <v>29</v>
       </c>
-      <c r="E296">
-        <v>3</v>
-      </c>
-      <c r="F296" t="s">
-        <v>6</v>
+      <c r="E296" t="s">
+        <v>10</v>
+      </c>
+      <c r="F296">
+        <v>4</v>
       </c>
       <c r="G296">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="H296">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B297">
         <v>28</v>
@@ -8177,22 +8119,22 @@
       <c r="D297">
         <v>30</v>
       </c>
-      <c r="E297">
-        <v>4</v>
-      </c>
-      <c r="F297" t="s">
-        <v>5</v>
+      <c r="E297" t="s">
+        <v>9</v>
+      </c>
+      <c r="F297">
+        <v>4</v>
       </c>
       <c r="G297">
-        <v>-0.55000000000000004</v>
+        <v>-0.55</v>
       </c>
       <c r="H297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B298">
         <v>28</v>
@@ -8203,11 +8145,11 @@
       <c r="D298">
         <v>30</v>
       </c>
-      <c r="E298">
-        <v>4</v>
-      </c>
-      <c r="F298" t="s">
-        <v>5</v>
+      <c r="E298" t="s">
+        <v>9</v>
+      </c>
+      <c r="F298">
+        <v>4</v>
       </c>
       <c r="G298">
         <v>1.075</v>
@@ -8216,9 +8158,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B299">
         <v>28</v>
@@ -8229,22 +8171,22 @@
       <c r="D299">
         <v>52</v>
       </c>
-      <c r="E299">
-        <v>4</v>
-      </c>
-      <c r="F299" t="s">
-        <v>6</v>
+      <c r="E299" t="s">
+        <v>10</v>
+      </c>
+      <c r="F299">
+        <v>3</v>
       </c>
       <c r="G299">
-        <v>-0.8</v>
+        <v>1.35</v>
       </c>
       <c r="H299">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B300">
         <v>28</v>
@@ -8255,25 +8197,20 @@
       <c r="D300">
         <v>52</v>
       </c>
-      <c r="E300">
-        <v>3</v>
-      </c>
-      <c r="F300" t="s">
-        <v>6</v>
+      <c r="E300" t="s">
+        <v>10</v>
+      </c>
+      <c r="F300">
+        <v>4</v>
       </c>
       <c r="G300">
-        <v>1.35</v>
+        <v>-0.8</v>
       </c>
       <c r="H300">
-        <v>1.6</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H300" xr:uid="{3E4B5A7B-6198-6B4F-87A3-8A666D4560D2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H300">
-      <sortCondition ref="B1:B300"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>